--- a/Symphony/2021/NOVEMBER/04.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/2021/NOVEMBER/04.11.2021/MC Bank Statement November-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2005,7 +2005,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2583,10 +2583,6 @@
     <xf numFmtId="2" fontId="40" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2664,9 +2660,6 @@
     </xf>
     <xf numFmtId="1" fontId="40" fillId="41" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2917,6 +2910,18 @@
     <xf numFmtId="1" fontId="32" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="43" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,6 +2933,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2956,22 +2973,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3061,17 +3066,36 @@
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="43" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="43" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="39" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3739,33 +3763,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3783,7 +3807,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="320"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3825,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="320"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -3813,7 +3837,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="320"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>68</v>
       </c>
@@ -3832,7 +3856,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="320"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>69</v>
       </c>
@@ -3851,7 +3875,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="320"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>71</v>
       </c>
@@ -3870,7 +3894,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="320"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28" t="s">
         <v>72</v>
       </c>
@@ -3889,7 +3913,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="320"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
@@ -3908,7 +3932,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="320"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28" t="s">
         <v>74</v>
       </c>
@@ -3927,7 +3951,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="320"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28" t="s">
         <v>75</v>
       </c>
@@ -3946,7 +3970,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="320"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28" t="s">
         <v>76</v>
       </c>
@@ -3965,7 +3989,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="320"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28" t="s">
         <v>77</v>
       </c>
@@ -3984,7 +4008,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="320"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3997,7 +4021,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="320"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4010,7 +4034,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="320"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4023,7 +4047,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4036,7 +4060,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="320"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4049,7 +4073,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="320"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4062,7 +4086,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="320"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4075,7 +4099,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="320"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4088,7 +4112,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="320"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4101,7 +4125,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="320"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4114,7 +4138,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="320"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4127,7 +4151,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="320"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4140,7 +4164,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="320"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4153,7 +4177,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="320"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4166,7 +4190,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="320"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4179,7 +4203,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="320"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4192,7 +4216,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="320"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4205,7 +4229,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="320"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4218,7 +4242,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="320"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4231,7 +4255,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="320"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4244,7 +4268,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="320"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4257,7 +4281,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="320"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4270,7 +4294,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="320"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4283,7 +4307,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="320"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4296,7 +4320,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="320"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4309,7 +4333,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="320"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4322,7 +4346,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="320"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4335,7 +4359,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="320"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4348,7 +4372,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="320"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4361,7 +4385,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="320"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4374,7 +4398,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="320"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4387,7 +4411,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="320"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4400,7 +4424,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="320"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4413,7 +4437,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="320"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4426,7 +4450,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="320"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4439,7 +4463,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="320"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4452,7 +4476,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="320"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4465,7 +4489,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="320"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4478,7 +4502,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="320"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4491,7 +4515,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="320"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4503,7 +4527,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="320"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4515,7 +4539,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="320"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4527,7 +4551,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="320"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4539,7 +4563,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="320"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4551,7 +4575,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="320"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4563,7 +4587,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="320"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4575,7 +4599,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="320"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4587,7 +4611,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="320"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4599,7 +4623,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="320"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4611,7 +4635,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4623,7 +4647,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4635,7 +4659,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4647,7 +4671,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4659,7 +4683,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4671,7 +4695,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4683,7 +4707,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4695,7 +4719,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4707,7 +4731,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4719,7 +4743,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -4731,7 +4755,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -4743,7 +4767,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4755,7 +4779,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -4767,7 +4791,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -4779,7 +4803,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -4791,7 +4815,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4803,7 +4827,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -4815,7 +4839,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -4827,7 +4851,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -4884,33 +4908,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4928,17 +4952,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="320"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="293">
+      <c r="C5" s="290">
         <v>34388</v>
       </c>
-      <c r="D5" s="293">
+      <c r="D5" s="290">
         <v>0</v>
       </c>
-      <c r="E5" s="294">
+      <c r="E5" s="291">
         <f>C5-D5</f>
         <v>34388</v>
       </c>
@@ -4946,11 +4970,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="320"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="295">
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="292">
         <f t="shared" ref="E6:E69" si="0">E5+C6-D6</f>
         <v>34388</v>
       </c>
@@ -4958,17 +4982,17 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="320"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="293">
+      <c r="C7" s="290">
         <v>0</v>
       </c>
-      <c r="D7" s="293">
+      <c r="D7" s="290">
         <v>0</v>
       </c>
-      <c r="E7" s="295">
+      <c r="E7" s="292">
         <f t="shared" si="0"/>
         <v>34388</v>
       </c>
@@ -4977,17 +5001,17 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="320"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="293">
+      <c r="C8" s="290">
         <v>220000</v>
       </c>
-      <c r="D8" s="314">
+      <c r="D8" s="311">
         <v>200000</v>
       </c>
-      <c r="E8" s="295">
+      <c r="E8" s="292">
         <f>E7+C8-D8</f>
         <v>54388</v>
       </c>
@@ -4996,17 +5020,17 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="320"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="293">
+      <c r="C9" s="290">
         <v>700000</v>
       </c>
-      <c r="D9" s="314">
+      <c r="D9" s="311">
         <v>100000</v>
       </c>
-      <c r="E9" s="295">
+      <c r="E9" s="292">
         <f t="shared" si="0"/>
         <v>654388</v>
       </c>
@@ -5015,17 +5039,17 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="320"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="296">
+      <c r="C10" s="293">
         <v>500000</v>
       </c>
-      <c r="D10" s="316">
+      <c r="D10" s="313">
         <v>550000</v>
       </c>
-      <c r="E10" s="295">
+      <c r="E10" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5034,11 +5058,11 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="320"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="295">
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5047,11 +5071,11 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="320"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="293"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="295">
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5060,11 +5084,11 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="320"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="295">
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5073,11 +5097,11 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="320"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="293"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="295">
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5086,11 +5110,11 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="320"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="295">
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5099,11 +5123,11 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="320"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="295">
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5112,11 +5136,11 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="320"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="295">
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5125,11 +5149,11 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="320"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="295">
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="292">
         <f>E17+C18-D18</f>
         <v>604388</v>
       </c>
@@ -5138,11 +5162,11 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="295">
+      <c r="C19" s="290"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5151,11 +5175,11 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="320"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="293"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="295">
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5164,11 +5188,11 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="320"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="293"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="295">
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="292">
         <f>E20+C21-D21</f>
         <v>604388</v>
       </c>
@@ -5177,11 +5201,11 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="320"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="293"/>
-      <c r="E22" s="295">
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5190,11 +5214,11 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="320"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="295">
+      <c r="C23" s="290"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="292">
         <f>E22+C23-D23</f>
         <v>604388</v>
       </c>
@@ -5203,11 +5227,11 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="320"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
-      <c r="E24" s="295">
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5216,11 +5240,11 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="320"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="295">
+      <c r="C25" s="290"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5229,11 +5253,11 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="320"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="295">
+      <c r="C26" s="290"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5242,11 +5266,11 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="320"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
-      <c r="E27" s="295">
+      <c r="C27" s="290"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5255,11 +5279,11 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="320"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="295">
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="292">
         <f>E27+C28-D28</f>
         <v>604388</v>
       </c>
@@ -5268,11 +5292,11 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="320"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="295">
+      <c r="C29" s="290"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5281,11 +5305,11 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="320"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="295">
+      <c r="C30" s="290"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5294,11 +5318,11 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="320"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="295">
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5307,11 +5331,11 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="320"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="295">
+      <c r="C32" s="290"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="292">
         <f>E31+C32-D32</f>
         <v>604388</v>
       </c>
@@ -5320,11 +5344,11 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="320"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="296"/>
-      <c r="E33" s="295">
+      <c r="C33" s="290"/>
+      <c r="D33" s="293"/>
+      <c r="E33" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5333,11 +5357,11 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="320"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="293"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="295">
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5346,11 +5370,11 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="320"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="293"/>
-      <c r="D35" s="293"/>
-      <c r="E35" s="295">
+      <c r="C35" s="290"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5359,11 +5383,11 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="320"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="295">
+      <c r="C36" s="290"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5372,11 +5396,11 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="320"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
-      <c r="E37" s="295">
+      <c r="C37" s="290"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5385,11 +5409,11 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="320"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="295">
+      <c r="C38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5398,11 +5422,11 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="320"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="295">
+      <c r="C39" s="290"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5411,11 +5435,11 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="320"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="295">
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5424,11 +5448,11 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="320"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="293"/>
-      <c r="D41" s="293"/>
-      <c r="E41" s="295">
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5437,11 +5461,11 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="320"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="293"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="295">
+      <c r="C42" s="290"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5450,11 +5474,11 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="320"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="293"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="295">
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5463,11 +5487,11 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="320"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="295">
+      <c r="C44" s="290"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5476,11 +5500,11 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="320"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="295">
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5489,11 +5513,11 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="320"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="295">
+      <c r="C46" s="290"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5502,11 +5526,11 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="320"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="295">
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5515,11 +5539,11 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="320"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="293"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="295">
+      <c r="C48" s="290"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5528,11 +5552,11 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="320"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="293"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="295">
+      <c r="C49" s="290"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5541,11 +5565,11 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="320"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="293"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="295">
+      <c r="C50" s="290"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5554,11 +5578,11 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="320"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
-      <c r="C51" s="293"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="295">
+      <c r="C51" s="290"/>
+      <c r="D51" s="290"/>
+      <c r="E51" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5567,11 +5591,11 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="320"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="293"/>
-      <c r="D52" s="293"/>
-      <c r="E52" s="295">
+      <c r="C52" s="290"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5580,11 +5604,11 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="320"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="293"/>
-      <c r="D53" s="293"/>
-      <c r="E53" s="295">
+      <c r="C53" s="290"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5593,11 +5617,11 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="320"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="293"/>
-      <c r="D54" s="293"/>
-      <c r="E54" s="295">
+      <c r="C54" s="290"/>
+      <c r="D54" s="290"/>
+      <c r="E54" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5606,11 +5630,11 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="320"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="293"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="295">
+      <c r="C55" s="290"/>
+      <c r="D55" s="290"/>
+      <c r="E55" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5618,11 +5642,11 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="320"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
-      <c r="C56" s="293"/>
-      <c r="D56" s="293"/>
-      <c r="E56" s="295">
+      <c r="C56" s="290"/>
+      <c r="D56" s="290"/>
+      <c r="E56" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5630,11 +5654,11 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="320"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="293"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="295">
+      <c r="C57" s="290"/>
+      <c r="D57" s="290"/>
+      <c r="E57" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5642,11 +5666,11 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="320"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
-      <c r="C58" s="293"/>
-      <c r="D58" s="293"/>
-      <c r="E58" s="295">
+      <c r="C58" s="290"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5654,11 +5678,11 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="320"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="293"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="295">
+      <c r="C59" s="290"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5666,11 +5690,11 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="320"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="293"/>
-      <c r="D60" s="293"/>
-      <c r="E60" s="295">
+      <c r="C60" s="290"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5678,11 +5702,11 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="320"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="293"/>
-      <c r="D61" s="293"/>
-      <c r="E61" s="295">
+      <c r="C61" s="290"/>
+      <c r="D61" s="290"/>
+      <c r="E61" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5690,11 +5714,11 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="320"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="293"/>
-      <c r="D62" s="293"/>
-      <c r="E62" s="295">
+      <c r="C62" s="290"/>
+      <c r="D62" s="290"/>
+      <c r="E62" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5702,11 +5726,11 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="320"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="293"/>
-      <c r="D63" s="293"/>
-      <c r="E63" s="295">
+      <c r="C63" s="290"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5714,11 +5738,11 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="320"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="293"/>
-      <c r="D64" s="293"/>
-      <c r="E64" s="295">
+      <c r="C64" s="290"/>
+      <c r="D64" s="290"/>
+      <c r="E64" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5726,11 +5750,11 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="293"/>
-      <c r="D65" s="293"/>
-      <c r="E65" s="295">
+      <c r="C65" s="290"/>
+      <c r="D65" s="290"/>
+      <c r="E65" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5738,11 +5762,11 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="293"/>
-      <c r="D66" s="293"/>
-      <c r="E66" s="295">
+      <c r="C66" s="290"/>
+      <c r="D66" s="290"/>
+      <c r="E66" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5750,11 +5774,11 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="293"/>
-      <c r="D67" s="293"/>
-      <c r="E67" s="295">
+      <c r="C67" s="290"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5762,11 +5786,11 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="293"/>
-      <c r="D68" s="293"/>
-      <c r="E68" s="295">
+      <c r="C68" s="290"/>
+      <c r="D68" s="290"/>
+      <c r="E68" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5774,11 +5798,11 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="293"/>
-      <c r="D69" s="293"/>
-      <c r="E69" s="295">
+      <c r="C69" s="290"/>
+      <c r="D69" s="290"/>
+      <c r="E69" s="292">
         <f t="shared" si="0"/>
         <v>604388</v>
       </c>
@@ -5786,11 +5810,11 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="293"/>
-      <c r="D70" s="293"/>
-      <c r="E70" s="295">
+      <c r="C70" s="290"/>
+      <c r="D70" s="290"/>
+      <c r="E70" s="292">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
         <v>604388</v>
       </c>
@@ -5798,11 +5822,11 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="293"/>
-      <c r="D71" s="293"/>
-      <c r="E71" s="295">
+      <c r="C71" s="290"/>
+      <c r="D71" s="290"/>
+      <c r="E71" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5810,11 +5834,11 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="293"/>
-      <c r="D72" s="293"/>
-      <c r="E72" s="295">
+      <c r="C72" s="290"/>
+      <c r="D72" s="290"/>
+      <c r="E72" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5822,11 +5846,11 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="293"/>
-      <c r="D73" s="293"/>
-      <c r="E73" s="295">
+      <c r="C73" s="290"/>
+      <c r="D73" s="290"/>
+      <c r="E73" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5834,11 +5858,11 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="293"/>
-      <c r="D74" s="293"/>
-      <c r="E74" s="295">
+      <c r="C74" s="290"/>
+      <c r="D74" s="290"/>
+      <c r="E74" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5846,11 +5870,11 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="293"/>
-      <c r="D75" s="293"/>
-      <c r="E75" s="295">
+      <c r="C75" s="290"/>
+      <c r="D75" s="290"/>
+      <c r="E75" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5858,11 +5882,11 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="293"/>
-      <c r="D76" s="293"/>
-      <c r="E76" s="295">
+      <c r="C76" s="290"/>
+      <c r="D76" s="290"/>
+      <c r="E76" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5870,11 +5894,11 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="293"/>
-      <c r="D77" s="293"/>
-      <c r="E77" s="295">
+      <c r="C77" s="290"/>
+      <c r="D77" s="290"/>
+      <c r="E77" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5882,11 +5906,11 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="293"/>
-      <c r="D78" s="293"/>
-      <c r="E78" s="295">
+      <c r="C78" s="290"/>
+      <c r="D78" s="290"/>
+      <c r="E78" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5894,11 +5918,11 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="293"/>
-      <c r="D79" s="293"/>
-      <c r="E79" s="295">
+      <c r="C79" s="290"/>
+      <c r="D79" s="290"/>
+      <c r="E79" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5906,11 +5930,11 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="293"/>
-      <c r="D80" s="293"/>
-      <c r="E80" s="295">
+      <c r="C80" s="290"/>
+      <c r="D80" s="290"/>
+      <c r="E80" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5918,11 +5942,11 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="293"/>
-      <c r="D81" s="293"/>
-      <c r="E81" s="295">
+      <c r="C81" s="290"/>
+      <c r="D81" s="290"/>
+      <c r="E81" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5930,11 +5954,11 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
-      <c r="C82" s="293"/>
-      <c r="D82" s="293"/>
-      <c r="E82" s="295">
+      <c r="C82" s="290"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="292">
         <f t="shared" si="1"/>
         <v>604388</v>
       </c>
@@ -5942,17 +5966,17 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
-      <c r="C83" s="295">
+      <c r="C83" s="292">
         <f>SUM(C5:C72)</f>
         <v>1454388</v>
       </c>
-      <c r="D83" s="295">
+      <c r="D83" s="292">
         <f>SUM(D5:D77)</f>
         <v>850000</v>
       </c>
-      <c r="E83" s="297">
+      <c r="E83" s="294">
         <f>E71</f>
         <v>604388</v>
       </c>
@@ -5994,67 +6018,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="326" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="327" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
-      <c r="K2" s="322"/>
-      <c r="L2" s="322"/>
-      <c r="M2" s="322"/>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="328" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="325"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="330"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6063,52 +6087,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="331" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="328" t="s">
+      <c r="B4" s="333" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="322" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="330" t="s">
+      <c r="D4" s="322" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="330" t="s">
+      <c r="E4" s="322" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="330" t="s">
+      <c r="F4" s="322" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="330" t="s">
+      <c r="G4" s="322" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="330" t="s">
+      <c r="H4" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="330" t="s">
+      <c r="I4" s="322" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="330" t="s">
+      <c r="J4" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="330" t="s">
+      <c r="K4" s="322" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="330" t="s">
+      <c r="L4" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="330" t="s">
+      <c r="M4" s="322" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="330" t="s">
+      <c r="N4" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="334" t="s">
+      <c r="O4" s="324" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="335" t="s">
         <v>80</v>
       </c>
       <c r="Q4" s="144" t="s">
@@ -6121,22 +6145,22 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="327"/>
-      <c r="B5" s="329"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="335"/>
-      <c r="P5" s="333"/>
+      <c r="A5" s="332"/>
+      <c r="B5" s="334"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
+      <c r="O5" s="325"/>
+      <c r="P5" s="336"/>
       <c r="Q5" s="145" t="s">
         <v>55</v>
       </c>
@@ -7083,7 +7107,7 @@
         <f>SUM(Q6:Q36)</f>
         <v>11720</v>
       </c>
-      <c r="S37" s="253" t="s">
+      <c r="S37" s="250" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7146,8 +7170,8 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
     </row>
-    <row r="44" spans="1:19" s="311" customFormat="1">
-      <c r="A44" s="311" t="s">
+    <row r="44" spans="1:19" s="308" customFormat="1">
+      <c r="A44" s="308" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9085,6 +9109,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9101,9 +9128,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9117,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9145,14 +9169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="341" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="342"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="343"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
       <c r="I1" s="161"/>
@@ -9246,14 +9270,14 @@
       <c r="CS1" s="156"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="344" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="346"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="161"/>
@@ -9347,14 +9371,14 @@
       <c r="CS2" s="156"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="347" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="348"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="349"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="161"/>
@@ -9448,25 +9472,25 @@
       <c r="CS3" s="156"/>
     </row>
     <row r="4" spans="1:97" ht="16.5" thickBot="1">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="225" t="s">
+      <c r="C4" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="226" t="s">
+      <c r="E4" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="226" t="s">
+      <c r="F4" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="298" t="s">
+      <c r="G4" s="295" t="s">
         <v>164</v>
       </c>
       <c r="H4" s="76"/>
@@ -9567,7 +9591,7 @@
       <c r="B5" s="63">
         <v>586790</v>
       </c>
-      <c r="C5" s="214">
+      <c r="C5" s="212">
         <v>660410</v>
       </c>
       <c r="D5" s="63">
@@ -9577,8 +9601,8 @@
         <f>C5+D5</f>
         <v>665250</v>
       </c>
-      <c r="F5" s="254"/>
-      <c r="G5" s="275">
+      <c r="F5" s="251"/>
+      <c r="G5" s="272">
         <v>7800</v>
       </c>
       <c r="H5" s="161"/>
@@ -9689,8 +9713,8 @@
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
         <v>390050</v>
       </c>
-      <c r="F6" s="255"/>
-      <c r="G6" s="276">
+      <c r="F6" s="252"/>
+      <c r="G6" s="273">
         <v>4750</v>
       </c>
       <c r="H6" s="169"/>
@@ -9801,8 +9825,8 @@
         <f t="shared" si="0"/>
         <v>358910</v>
       </c>
-      <c r="F7" s="255"/>
-      <c r="G7" s="276">
+      <c r="F7" s="252"/>
+      <c r="G7" s="273">
         <v>3800</v>
       </c>
       <c r="H7" s="169"/>
@@ -9913,8 +9937,8 @@
         <f t="shared" si="0"/>
         <v>370050</v>
       </c>
-      <c r="F8" s="256"/>
-      <c r="G8" s="275">
+      <c r="F8" s="253"/>
+      <c r="G8" s="272">
         <v>1380</v>
       </c>
       <c r="H8" s="161"/>
@@ -10017,8 +10041,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="257"/>
-      <c r="G9" s="275"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="272"/>
       <c r="H9" s="161"/>
       <c r="I9" s="166"/>
       <c r="J9" s="166"/>
@@ -10119,8 +10143,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="258"/>
-      <c r="G10" s="275"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="272"/>
       <c r="H10" s="161"/>
       <c r="I10" s="166"/>
       <c r="J10" s="166"/>
@@ -10221,8 +10245,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="256"/>
-      <c r="G11" s="275"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="272"/>
       <c r="H11" s="166"/>
       <c r="I11" s="166"/>
       <c r="J11" s="166"/>
@@ -10323,8 +10347,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="256"/>
-      <c r="G12" s="275"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="272"/>
       <c r="H12" s="166"/>
       <c r="I12" s="166"/>
       <c r="J12" s="166"/>
@@ -10425,8 +10449,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="258"/>
-      <c r="G13" s="275"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="272"/>
       <c r="H13" s="161"/>
       <c r="I13" s="166"/>
       <c r="J13" s="166"/>
@@ -10527,8 +10551,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="257"/>
-      <c r="G14" s="275"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="272"/>
       <c r="H14" s="161"/>
       <c r="I14" s="166"/>
       <c r="J14" s="166"/>
@@ -10629,8 +10653,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="256"/>
-      <c r="G15" s="275"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="272"/>
       <c r="H15" s="166"/>
       <c r="I15" s="166"/>
       <c r="J15" s="166"/>
@@ -10731,8 +10755,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="275"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="272"/>
       <c r="H16" s="166"/>
       <c r="I16" s="166"/>
       <c r="J16" s="166"/>
@@ -10833,8 +10857,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="255"/>
-      <c r="G17" s="276"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="273"/>
       <c r="H17" s="169"/>
       <c r="I17" s="166"/>
       <c r="J17" s="166"/>
@@ -10935,8 +10959,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="258"/>
-      <c r="G18" s="275"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="272"/>
       <c r="H18" s="161"/>
       <c r="I18" s="166"/>
       <c r="J18" s="166"/>
@@ -11037,8 +11061,8 @@
         <f>C19+D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="275"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="272"/>
       <c r="H19" s="161"/>
       <c r="I19" s="166"/>
       <c r="J19" s="166"/>
@@ -11139,8 +11163,8 @@
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="255"/>
-      <c r="G20" s="275"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="272"/>
       <c r="H20" s="161"/>
       <c r="I20" s="166"/>
       <c r="J20" s="166"/>
@@ -11241,8 +11265,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="255"/>
-      <c r="G21" s="275"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="272"/>
       <c r="H21" s="161"/>
       <c r="I21" s="166"/>
       <c r="J21" s="166"/>
@@ -11343,8 +11367,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="255"/>
-      <c r="G22" s="275"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="272"/>
       <c r="H22" s="161"/>
       <c r="I22" s="166"/>
       <c r="J22" s="166"/>
@@ -11445,8 +11469,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="255"/>
-      <c r="G23" s="276"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="273"/>
       <c r="H23" s="169"/>
       <c r="I23" s="166"/>
       <c r="J23" s="166"/>
@@ -11547,8 +11571,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="255"/>
-      <c r="G24" s="276"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="273"/>
       <c r="H24" s="169"/>
       <c r="I24" s="166"/>
       <c r="J24" s="166"/>
@@ -11649,8 +11673,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="257"/>
-      <c r="G25" s="275"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="272"/>
       <c r="H25" s="161"/>
       <c r="I25" s="166"/>
       <c r="J25" s="166"/>
@@ -11751,8 +11775,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="259"/>
-      <c r="G26" s="275"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="272"/>
       <c r="H26" s="161"/>
       <c r="I26" s="166"/>
       <c r="J26" s="166"/>
@@ -11853,8 +11877,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="257"/>
-      <c r="G27" s="275"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="272"/>
       <c r="H27" s="161"/>
       <c r="I27" s="166"/>
       <c r="J27" s="166"/>
@@ -11955,8 +11979,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="257"/>
-      <c r="G28" s="275"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="272"/>
       <c r="H28" s="161"/>
       <c r="I28" s="166"/>
       <c r="J28" s="166"/>
@@ -12057,8 +12081,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="257"/>
-      <c r="G29" s="275"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="272"/>
       <c r="H29" s="161"/>
       <c r="I29" s="166"/>
       <c r="J29" s="166"/>
@@ -12159,8 +12183,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="256"/>
-      <c r="G30" s="277"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="274"/>
       <c r="H30" s="159"/>
       <c r="I30" s="178"/>
       <c r="J30" s="159"/>
@@ -12261,8 +12285,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="256"/>
-      <c r="G31" s="278"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="275"/>
       <c r="H31" s="159"/>
       <c r="I31" s="178"/>
       <c r="J31" s="179"/>
@@ -12355,16 +12379,16 @@
       <c r="CS31" s="156"/>
     </row>
     <row r="32" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A32" s="207"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="148"/>
-      <c r="C32" s="274"/>
+      <c r="C32" s="271"/>
       <c r="D32" s="148"/>
       <c r="E32" s="148">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="260"/>
-      <c r="G32" s="278"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="275"/>
       <c r="H32" s="170"/>
       <c r="I32" s="158"/>
       <c r="J32" s="179"/>
@@ -12457,30 +12481,30 @@
       <c r="CS32" s="156"/>
     </row>
     <row r="33" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A33" s="225" t="s">
+      <c r="A33" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="300">
+      <c r="B33" s="297">
         <f>SUM(B5:B32)</f>
         <v>1604310</v>
       </c>
-      <c r="C33" s="301">
+      <c r="C33" s="298">
         <f>SUM(C5:C32)</f>
         <v>1772540</v>
       </c>
-      <c r="D33" s="300">
+      <c r="D33" s="297">
         <f>SUM(D5:D32)</f>
         <v>11720</v>
       </c>
-      <c r="E33" s="300">
+      <c r="E33" s="297">
         <f>SUM(E5:E32)</f>
         <v>1784260</v>
       </c>
-      <c r="F33" s="300">
+      <c r="F33" s="297">
         <f>B33-E33</f>
         <v>-179950</v>
       </c>
-      <c r="G33" s="302"/>
+      <c r="G33" s="299"/>
       <c r="H33" s="157"/>
       <c r="I33" s="158"/>
       <c r="J33" s="159"/>
@@ -12673,12 +12697,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="151"/>
-      <c r="B35" s="338" t="s">
+      <c r="B35" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="338"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
+      <c r="C35" s="339"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="339"/>
       <c r="F35" s="152"/>
       <c r="G35" s="157"/>
       <c r="H35" s="157"/>
@@ -12773,19 +12797,19 @@
       <c r="CS35" s="156"/>
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="225" t="s">
+      <c r="C36" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="226" t="s">
+      <c r="D36" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="226" t="s">
+      <c r="E36" s="224" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="202">
@@ -12885,19 +12909,19 @@
       <c r="CS36" s="156"/>
     </row>
     <row r="37" spans="1:97">
-      <c r="A37" s="205" t="s">
+      <c r="A37" s="203" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="270" t="s">
+      <c r="B37" s="267" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="228">
+      <c r="D37" s="226">
         <v>1000</v>
       </c>
-      <c r="E37" s="313" t="s">
+      <c r="E37" s="310" t="s">
         <v>141</v>
       </c>
       <c r="F37" s="152"/>
@@ -12994,7 +13018,7 @@
       <c r="CS37" s="156"/>
     </row>
     <row r="38" spans="1:97">
-      <c r="A38" s="205" t="s">
+      <c r="A38" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="135" t="s">
@@ -13003,7 +13027,7 @@
       <c r="C38" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="229">
+      <c r="D38" s="227">
         <v>2380</v>
       </c>
       <c r="E38" s="194" t="s">
@@ -13103,12 +13127,12 @@
       <c r="CS38" s="156"/>
     </row>
     <row r="39" spans="1:97">
-      <c r="A39" s="205" t="s">
+      <c r="A39" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B39" s="73"/>
-      <c r="C39" s="312"/>
-      <c r="D39" s="229"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="227"/>
       <c r="E39" s="194"/>
       <c r="F39" s="150"/>
       <c r="G39" s="157"/>
@@ -13204,12 +13228,12 @@
       <c r="CS39" s="156"/>
     </row>
     <row r="40" spans="1:97">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="210" t="s">
         <v>123</v>
       </c>
       <c r="B40" s="135"/>
       <c r="C40" s="134"/>
-      <c r="D40" s="229"/>
+      <c r="D40" s="227"/>
       <c r="E40" s="194"/>
       <c r="F40" s="150"/>
       <c r="G40" s="163"/>
@@ -13305,7 +13329,7 @@
       <c r="CS40" s="156"/>
     </row>
     <row r="41" spans="1:97">
-      <c r="A41" s="205" t="s">
+      <c r="A41" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="135" t="s">
@@ -13314,7 +13338,7 @@
       <c r="C41" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="229">
+      <c r="D41" s="227">
         <v>8990</v>
       </c>
       <c r="E41" s="194" t="s">
@@ -13416,12 +13440,12 @@
       <c r="CS41" s="156"/>
     </row>
     <row r="42" spans="1:97">
-      <c r="A42" s="205" t="s">
+      <c r="A42" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B42" s="135"/>
       <c r="C42" s="134"/>
-      <c r="D42" s="229"/>
+      <c r="D42" s="227"/>
       <c r="E42" s="194"/>
       <c r="F42" s="156"/>
       <c r="G42" s="165"/>
@@ -13517,18 +13541,18 @@
       <c r="CS42" s="156"/>
     </row>
     <row r="43" spans="1:97">
-      <c r="A43" s="205" t="s">
+      <c r="A43" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B43" s="73"/>
       <c r="C43" s="134"/>
-      <c r="D43" s="229"/>
+      <c r="D43" s="227"/>
       <c r="E43" s="195"/>
       <c r="F43" s="152"/>
-      <c r="G43" s="339"/>
-      <c r="H43" s="339"/>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
       <c r="K43" s="76"/>
       <c r="L43" s="161"/>
       <c r="M43" s="76"/>
@@ -13618,12 +13642,12 @@
       <c r="CS43" s="156"/>
     </row>
     <row r="44" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A44" s="205" t="s">
+      <c r="A44" s="203" t="s">
         <v>123</v>
       </c>
       <c r="B44" s="73"/>
       <c r="C44" s="134"/>
-      <c r="D44" s="229"/>
+      <c r="D44" s="227"/>
       <c r="E44" s="194"/>
       <c r="F44" s="153"/>
       <c r="G44" s="191"/>
@@ -13719,39 +13743,39 @@
       <c r="CS44" s="156"/>
     </row>
     <row r="45" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A45" s="223" t="s">
+      <c r="A45" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="223" t="s">
+      <c r="B45" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="223" t="s">
+      <c r="C45" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="230" t="s">
+      <c r="D45" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="224" t="s">
+      <c r="E45" s="222" t="s">
         <v>115</v>
       </c>
       <c r="F45" s="150"/>
       <c r="G45" s="156"/>
-      <c r="H45" s="244" t="s">
+      <c r="H45" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="240" t="s">
+      <c r="I45" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="240" t="s">
+      <c r="J45" s="237" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="245" t="s">
+      <c r="K45" s="242" t="s">
         <v>129</v>
       </c>
-      <c r="L45" s="246" t="s">
+      <c r="L45" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="247" t="s">
+      <c r="M45" s="244" t="s">
         <v>37</v>
       </c>
       <c r="N45" s="76"/>
@@ -13840,39 +13864,39 @@
       <c r="CS45" s="156"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="248" t="s">
+      <c r="A46" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="203" t="s">
+      <c r="B46" s="366" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="146">
+      <c r="C46" s="367">
         <v>1718911905</v>
       </c>
-      <c r="D46" s="231">
+      <c r="D46" s="368">
         <v>414120</v>
       </c>
-      <c r="E46" s="204" t="s">
+      <c r="E46" s="369" t="s">
         <v>196</v>
       </c>
       <c r="F46" s="149"/>
       <c r="G46" s="156"/>
-      <c r="H46" s="212" t="s">
+      <c r="H46" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="213">
+      <c r="I46" s="211">
         <v>1718911905</v>
       </c>
-      <c r="J46" s="214">
+      <c r="J46" s="212">
         <v>614120</v>
       </c>
       <c r="K46" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="L46" s="215">
+      <c r="L46" s="213">
         <v>614120</v>
       </c>
-      <c r="M46" s="216">
+      <c r="M46" s="214">
         <f>SUM(J46-L46)</f>
         <v>0</v>
       </c>
@@ -13962,7 +13986,7 @@
       <c r="CS46" s="156"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="248" t="s">
+      <c r="A47" s="245" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="68" t="s">
@@ -13971,7 +13995,7 @@
       <c r="C47" s="134">
         <v>1723246584</v>
       </c>
-      <c r="D47" s="232">
+      <c r="D47" s="229">
         <v>39856</v>
       </c>
       <c r="E47" s="198" t="s">
@@ -13979,7 +14003,7 @@
       </c>
       <c r="F47" s="150"/>
       <c r="G47" s="156"/>
-      <c r="H47" s="208" t="s">
+      <c r="H47" s="206" t="s">
         <v>138</v>
       </c>
       <c r="I47" s="71">
@@ -13994,7 +14018,7 @@
       <c r="L47" s="147">
         <v>39856</v>
       </c>
-      <c r="M47" s="209">
+      <c r="M47" s="207">
         <f t="shared" ref="M47:M110" si="2">SUM(J47-L47)</f>
         <v>0</v>
       </c>
@@ -14084,24 +14108,24 @@
       <c r="CS47" s="156"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="248" t="s">
+      <c r="A48" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="375" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="134">
+      <c r="C48" s="371">
         <v>1733624262</v>
       </c>
-      <c r="D48" s="232">
+      <c r="D48" s="372">
         <v>194966</v>
       </c>
-      <c r="E48" s="197" t="s">
+      <c r="E48" s="376" t="s">
         <v>191</v>
       </c>
       <c r="F48" s="150"/>
       <c r="G48" s="156"/>
-      <c r="H48" s="208" t="s">
+      <c r="H48" s="206" t="s">
         <v>133</v>
       </c>
       <c r="I48" s="71">
@@ -14116,7 +14140,7 @@
       <c r="L48" s="147">
         <v>180706</v>
       </c>
-      <c r="M48" s="209">
+      <c r="M48" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14206,7 +14230,7 @@
       <c r="CS48" s="156"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="248" t="s">
+      <c r="A49" s="245" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="69" t="s">
@@ -14215,7 +14239,7 @@
       <c r="C49" s="134">
         <v>1711460131</v>
       </c>
-      <c r="D49" s="232">
+      <c r="D49" s="229">
         <v>198540</v>
       </c>
       <c r="E49" s="196" t="s">
@@ -14223,7 +14247,7 @@
       </c>
       <c r="F49" s="150"/>
       <c r="G49" s="156"/>
-      <c r="H49" s="208" t="s">
+      <c r="H49" s="206" t="s">
         <v>134</v>
       </c>
       <c r="I49" s="71">
@@ -14238,7 +14262,7 @@
       <c r="L49" s="147">
         <v>198540</v>
       </c>
-      <c r="M49" s="209">
+      <c r="M49" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14328,7 +14352,7 @@
       <c r="CS49" s="156"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="248" t="s">
+      <c r="A50" s="245" t="s">
         <v>130</v>
       </c>
       <c r="B50" s="136" t="s">
@@ -14337,7 +14361,7 @@
       <c r="C50" s="134">
         <v>1716697790</v>
       </c>
-      <c r="D50" s="232">
+      <c r="D50" s="229">
         <v>242575</v>
       </c>
       <c r="E50" s="196" t="s">
@@ -14360,7 +14384,7 @@
       <c r="L50" s="147">
         <v>342575</v>
       </c>
-      <c r="M50" s="209">
+      <c r="M50" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14450,7 +14474,7 @@
       <c r="CS50" s="156"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="248" t="s">
+      <c r="A51" s="245" t="s">
         <v>130</v>
       </c>
       <c r="B51" s="68" t="s">
@@ -14459,7 +14483,7 @@
       <c r="C51" s="134">
         <v>1712688979</v>
       </c>
-      <c r="D51" s="232">
+      <c r="D51" s="229">
         <v>55300</v>
       </c>
       <c r="E51" s="198" t="s">
@@ -14467,7 +14491,7 @@
       </c>
       <c r="F51" s="150"/>
       <c r="G51" s="156"/>
-      <c r="H51" s="208" t="s">
+      <c r="H51" s="206" t="s">
         <v>136</v>
       </c>
       <c r="I51" s="71">
@@ -14482,7 +14506,7 @@
       <c r="L51" s="147">
         <v>55300</v>
       </c>
-      <c r="M51" s="209">
+      <c r="M51" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14572,24 +14596,24 @@
       <c r="CS51" s="156"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="248" t="s">
+      <c r="A52" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="370" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="371">
         <v>1739791780</v>
       </c>
-      <c r="D52" s="232">
+      <c r="D52" s="372">
         <v>16850</v>
       </c>
-      <c r="E52" s="196" t="s">
+      <c r="E52" s="373" t="s">
         <v>196</v>
       </c>
       <c r="F52" s="150"/>
       <c r="G52" s="156"/>
-      <c r="H52" s="208" t="s">
+      <c r="H52" s="206" t="s">
         <v>137</v>
       </c>
       <c r="I52" s="71">
@@ -14604,7 +14628,7 @@
       <c r="L52" s="147">
         <v>10020</v>
       </c>
-      <c r="M52" s="209">
+      <c r="M52" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14694,24 +14718,24 @@
       <c r="CS52" s="156"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="248" t="s">
+      <c r="A53" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="370" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="134">
+      <c r="C53" s="371">
         <v>1725821212</v>
       </c>
-      <c r="D53" s="232">
+      <c r="D53" s="372">
         <v>34310</v>
       </c>
-      <c r="E53" s="198" t="s">
+      <c r="E53" s="374" t="s">
         <v>196</v>
       </c>
       <c r="F53" s="150"/>
       <c r="G53" s="156"/>
-      <c r="H53" s="208" t="s">
+      <c r="H53" s="206" t="s">
         <v>139</v>
       </c>
       <c r="I53" s="71">
@@ -14726,7 +14750,7 @@
       <c r="L53" s="147">
         <v>22360</v>
       </c>
-      <c r="M53" s="209">
+      <c r="M53" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14816,7 +14840,7 @@
       <c r="CS53" s="156"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="248" t="s">
+      <c r="A54" s="245" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="69" t="s">
@@ -14825,7 +14849,7 @@
       <c r="C54" s="134">
         <v>1743942020</v>
       </c>
-      <c r="D54" s="232">
+      <c r="D54" s="229">
         <v>183509</v>
       </c>
       <c r="E54" s="197" t="s">
@@ -14833,7 +14857,7 @@
       </c>
       <c r="F54" s="150"/>
       <c r="G54" s="156"/>
-      <c r="H54" s="210" t="s">
+      <c r="H54" s="208" t="s">
         <v>135</v>
       </c>
       <c r="I54" s="77">
@@ -14848,7 +14872,7 @@
       <c r="L54" s="147">
         <v>183509</v>
       </c>
-      <c r="M54" s="209">
+      <c r="M54" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14938,19 +14962,19 @@
       <c r="CS54" s="156"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="248"/>
+      <c r="A55" s="245"/>
       <c r="B55" s="69"/>
       <c r="C55" s="134"/>
-      <c r="D55" s="232"/>
+      <c r="D55" s="229"/>
       <c r="E55" s="197"/>
       <c r="F55" s="150"/>
       <c r="G55" s="156"/>
-      <c r="H55" s="208"/>
+      <c r="H55" s="206"/>
       <c r="I55" s="71"/>
       <c r="J55" s="67"/>
       <c r="K55" s="189"/>
       <c r="L55" s="147"/>
-      <c r="M55" s="209">
+      <c r="M55" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15040,19 +15064,19 @@
       <c r="CS55" s="156"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="249"/>
+      <c r="A56" s="246"/>
       <c r="B56" s="70"/>
       <c r="C56" s="134"/>
-      <c r="D56" s="233"/>
+      <c r="D56" s="230"/>
       <c r="E56" s="198"/>
       <c r="F56" s="150"/>
       <c r="G56" s="156"/>
-      <c r="H56" s="208"/>
+      <c r="H56" s="206"/>
       <c r="I56" s="71"/>
       <c r="J56" s="67"/>
       <c r="K56" s="134"/>
       <c r="L56" s="147"/>
-      <c r="M56" s="209">
+      <c r="M56" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15142,7 +15166,7 @@
       <c r="CS56" s="156"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="249" t="s">
+      <c r="A57" s="246" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="69" t="s">
@@ -15151,7 +15175,7 @@
       <c r="C57" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="232">
+      <c r="D57" s="229">
         <v>13000</v>
       </c>
       <c r="E57" s="198" t="s">
@@ -15159,7 +15183,7 @@
       </c>
       <c r="F57" s="150"/>
       <c r="G57" s="156"/>
-      <c r="H57" s="208" t="s">
+      <c r="H57" s="206" t="s">
         <v>108</v>
       </c>
       <c r="I57" s="71" t="s">
@@ -15174,7 +15198,7 @@
       <c r="L57" s="147">
         <v>13000</v>
       </c>
-      <c r="M57" s="209">
+      <c r="M57" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15264,7 +15288,7 @@
       <c r="CS57" s="156"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="249" t="s">
+      <c r="A58" s="246" t="s">
         <v>116</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -15273,7 +15297,7 @@
       <c r="C58" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="232">
+      <c r="D58" s="229">
         <v>2000</v>
       </c>
       <c r="E58" s="196" t="s">
@@ -15281,7 +15305,7 @@
       </c>
       <c r="F58" s="150"/>
       <c r="G58" s="156"/>
-      <c r="H58" s="208" t="s">
+      <c r="H58" s="206" t="s">
         <v>109</v>
       </c>
       <c r="I58" s="71" t="s">
@@ -15296,7 +15320,7 @@
       <c r="L58" s="147">
         <v>2000</v>
       </c>
-      <c r="M58" s="209">
+      <c r="M58" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15386,7 +15410,7 @@
       <c r="CS58" s="156"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="249" t="s">
+      <c r="A59" s="246" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="136" t="s">
@@ -15395,7 +15419,7 @@
       <c r="C59" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="232">
+      <c r="D59" s="229">
         <v>22000</v>
       </c>
       <c r="E59" s="198" t="s">
@@ -15403,7 +15427,7 @@
       </c>
       <c r="F59" s="150"/>
       <c r="G59" s="156"/>
-      <c r="H59" s="208" t="s">
+      <c r="H59" s="206" t="s">
         <v>112</v>
       </c>
       <c r="I59" s="71" t="s">
@@ -15418,7 +15442,7 @@
       <c r="L59" s="147">
         <v>24000</v>
       </c>
-      <c r="M59" s="209">
+      <c r="M59" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15508,7 +15532,7 @@
       <c r="CS59" s="156"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="249" t="s">
+      <c r="A60" s="246" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="69" t="s">
@@ -15517,7 +15541,7 @@
       <c r="C60" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="252">
+      <c r="D60" s="249">
         <v>3500</v>
       </c>
       <c r="E60" s="196" t="s">
@@ -15540,7 +15564,7 @@
       <c r="L60" s="147">
         <v>3500</v>
       </c>
-      <c r="M60" s="209">
+      <c r="M60" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15630,7 +15654,7 @@
       <c r="CS60" s="156"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="249" t="s">
+      <c r="A61" s="246" t="s">
         <v>116</v>
       </c>
       <c r="B61" s="69" t="s">
@@ -15639,7 +15663,7 @@
       <c r="C61" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="252">
+      <c r="D61" s="249">
         <v>13500</v>
       </c>
       <c r="E61" s="197" t="s">
@@ -15647,7 +15671,7 @@
       </c>
       <c r="F61" s="152"/>
       <c r="G61" s="156"/>
-      <c r="H61" s="208" t="s">
+      <c r="H61" s="206" t="s">
         <v>107</v>
       </c>
       <c r="I61" s="71" t="s">
@@ -15662,7 +15686,7 @@
       <c r="L61" s="147">
         <v>13500</v>
       </c>
-      <c r="M61" s="209">
+      <c r="M61" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15752,7 +15776,7 @@
       <c r="CS61" s="156"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="249" t="s">
+      <c r="A62" s="246" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="68" t="s">
@@ -15761,7 +15785,7 @@
       <c r="C62" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="252">
+      <c r="D62" s="249">
         <v>129590</v>
       </c>
       <c r="E62" s="196" t="s">
@@ -15769,7 +15793,7 @@
       </c>
       <c r="F62" s="149"/>
       <c r="G62" s="156"/>
-      <c r="H62" s="208" t="s">
+      <c r="H62" s="206" t="s">
         <v>111</v>
       </c>
       <c r="I62" s="71" t="s">
@@ -15784,7 +15808,7 @@
       <c r="L62" s="147">
         <v>129590</v>
       </c>
-      <c r="M62" s="209">
+      <c r="M62" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15874,10 +15898,10 @@
       <c r="CS62" s="156"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="249"/>
+      <c r="A63" s="246"/>
       <c r="B63" s="68"/>
       <c r="C63" s="134"/>
-      <c r="D63" s="232"/>
+      <c r="D63" s="229"/>
       <c r="E63" s="197"/>
       <c r="F63" s="150"/>
       <c r="G63" s="156"/>
@@ -15886,7 +15910,7 @@
       <c r="J63" s="187"/>
       <c r="K63" s="188"/>
       <c r="L63" s="147"/>
-      <c r="M63" s="209">
+      <c r="M63" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15976,10 +16000,10 @@
       <c r="CS63" s="156"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="249"/>
+      <c r="A64" s="246"/>
       <c r="B64" s="68"/>
       <c r="C64" s="134"/>
-      <c r="D64" s="232"/>
+      <c r="D64" s="229"/>
       <c r="E64" s="196"/>
       <c r="F64" s="150"/>
       <c r="G64" s="156"/>
@@ -15988,7 +16012,7 @@
       <c r="J64" s="187"/>
       <c r="K64" s="188"/>
       <c r="L64" s="147"/>
-      <c r="M64" s="209">
+      <c r="M64" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16078,19 +16102,19 @@
       <c r="CS64" s="156"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="249"/>
+      <c r="A65" s="246"/>
       <c r="B65" s="69"/>
       <c r="C65" s="134"/>
-      <c r="D65" s="232"/>
+      <c r="D65" s="229"/>
       <c r="E65" s="196"/>
       <c r="F65" s="150"/>
       <c r="G65" s="156"/>
-      <c r="H65" s="208"/>
+      <c r="H65" s="206"/>
       <c r="I65" s="71"/>
       <c r="J65" s="67"/>
       <c r="K65" s="189"/>
       <c r="L65" s="147"/>
-      <c r="M65" s="209">
+      <c r="M65" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16180,19 +16204,19 @@
       <c r="CS65" s="156"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="249"/>
+      <c r="A66" s="246"/>
       <c r="B66" s="69"/>
       <c r="C66" s="134"/>
-      <c r="D66" s="232"/>
+      <c r="D66" s="229"/>
       <c r="E66" s="198"/>
       <c r="F66" s="150"/>
       <c r="G66" s="156"/>
-      <c r="H66" s="208"/>
+      <c r="H66" s="206"/>
       <c r="I66" s="71"/>
       <c r="J66" s="67"/>
       <c r="K66" s="189"/>
       <c r="L66" s="147"/>
-      <c r="M66" s="209">
+      <c r="M66" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16282,7 +16306,7 @@
       <c r="CS66" s="156"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="249" t="s">
+      <c r="A67" s="246" t="s">
         <v>122</v>
       </c>
       <c r="B67" s="69" t="s">
@@ -16291,7 +16315,7 @@
       <c r="C67" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="232">
+      <c r="D67" s="229">
         <v>56470</v>
       </c>
       <c r="E67" s="197" t="s">
@@ -16299,7 +16323,7 @@
       </c>
       <c r="F67" s="150"/>
       <c r="G67" s="156"/>
-      <c r="H67" s="208" t="s">
+      <c r="H67" s="206" t="s">
         <v>99</v>
       </c>
       <c r="I67" s="71" t="s">
@@ -16314,7 +16338,7 @@
       <c r="L67" s="147">
         <v>56470</v>
       </c>
-      <c r="M67" s="209">
+      <c r="M67" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16404,7 +16428,7 @@
       <c r="CS67" s="156"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="249" t="s">
+      <c r="A68" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B68" s="69" t="s">
@@ -16413,7 +16437,7 @@
       <c r="C68" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="232">
+      <c r="D68" s="229">
         <v>28000</v>
       </c>
       <c r="E68" s="196" t="s">
@@ -16421,7 +16445,7 @@
       </c>
       <c r="F68" s="150"/>
       <c r="G68" s="156"/>
-      <c r="H68" s="208" t="s">
+      <c r="H68" s="206" t="s">
         <v>100</v>
       </c>
       <c r="I68" s="71" t="s">
@@ -16436,7 +16460,7 @@
       <c r="L68" s="147">
         <v>28000</v>
       </c>
-      <c r="M68" s="209">
+      <c r="M68" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16526,7 +16550,7 @@
       <c r="CS68" s="156"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="249" t="s">
+      <c r="A69" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B69" s="69" t="s">
@@ -16535,7 +16559,7 @@
       <c r="C69" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="232">
+      <c r="D69" s="229">
         <v>16000</v>
       </c>
       <c r="E69" s="197" t="s">
@@ -16543,7 +16567,7 @@
       </c>
       <c r="F69" s="76"/>
       <c r="G69" s="156"/>
-      <c r="H69" s="208" t="s">
+      <c r="H69" s="206" t="s">
         <v>105</v>
       </c>
       <c r="I69" s="71" t="s">
@@ -16558,7 +16582,7 @@
       <c r="L69" s="147">
         <v>16000</v>
       </c>
-      <c r="M69" s="209">
+      <c r="M69" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16648,7 +16672,7 @@
       <c r="CS69" s="156"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="249" t="s">
+      <c r="A70" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B70" s="69" t="s">
@@ -16657,7 +16681,7 @@
       <c r="C70" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="232">
+      <c r="D70" s="229">
         <v>29460</v>
       </c>
       <c r="E70" s="197" t="s">
@@ -16680,7 +16704,7 @@
       <c r="L70" s="147">
         <v>29460</v>
       </c>
-      <c r="M70" s="209">
+      <c r="M70" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16770,7 +16794,7 @@
       <c r="CS70" s="156"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="249" t="s">
+      <c r="A71" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="69" t="s">
@@ -16779,7 +16803,7 @@
       <c r="C71" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="232">
+      <c r="D71" s="229">
         <v>33000</v>
       </c>
       <c r="E71" s="197" t="s">
@@ -16787,7 +16811,7 @@
       </c>
       <c r="F71" s="152"/>
       <c r="G71" s="156"/>
-      <c r="H71" s="211" t="s">
+      <c r="H71" s="209" t="s">
         <v>102</v>
       </c>
       <c r="I71" s="74" t="s">
@@ -16802,7 +16826,7 @@
       <c r="L71" s="147">
         <v>33000</v>
       </c>
-      <c r="M71" s="209">
+      <c r="M71" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16892,7 +16916,7 @@
       <c r="CS71" s="156"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="249" t="s">
+      <c r="A72" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B72" s="69" t="s">
@@ -16901,7 +16925,7 @@
       <c r="C72" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="252">
+      <c r="D72" s="249">
         <v>19370</v>
       </c>
       <c r="E72" s="198" t="s">
@@ -16924,7 +16948,7 @@
       <c r="L72" s="147">
         <v>19370</v>
       </c>
-      <c r="M72" s="209">
+      <c r="M72" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17014,7 +17038,7 @@
       <c r="CS72" s="156"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="249" t="s">
+      <c r="A73" s="246" t="s">
         <v>121</v>
       </c>
       <c r="B73" s="69" t="s">
@@ -17023,7 +17047,7 @@
       <c r="C73" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="252">
+      <c r="D73" s="249">
         <v>22000</v>
       </c>
       <c r="E73" s="198" t="s">
@@ -17031,7 +17055,7 @@
       </c>
       <c r="F73" s="152"/>
       <c r="G73" s="156"/>
-      <c r="H73" s="208" t="s">
+      <c r="H73" s="206" t="s">
         <v>104</v>
       </c>
       <c r="I73" s="71" t="s">
@@ -17046,7 +17070,7 @@
       <c r="L73" s="147">
         <v>22000</v>
       </c>
-      <c r="M73" s="209">
+      <c r="M73" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17136,7 +17160,7 @@
       <c r="CS73" s="156"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="249" t="s">
+      <c r="A74" s="246" t="s">
         <v>122</v>
       </c>
       <c r="B74" s="68" t="s">
@@ -17145,7 +17169,7 @@
       <c r="C74" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="252">
+      <c r="D74" s="249">
         <v>10915</v>
       </c>
       <c r="E74" s="196" t="s">
@@ -17168,7 +17192,7 @@
       <c r="L74" s="147">
         <v>10915</v>
       </c>
-      <c r="M74" s="209">
+      <c r="M74" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17258,19 +17282,19 @@
       <c r="CS74" s="156"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="249"/>
+      <c r="A75" s="246"/>
       <c r="B75" s="69"/>
       <c r="C75" s="134"/>
-      <c r="D75" s="232"/>
+      <c r="D75" s="229"/>
       <c r="E75" s="198"/>
       <c r="F75" s="150"/>
       <c r="G75" s="156"/>
-      <c r="H75" s="208"/>
+      <c r="H75" s="206"/>
       <c r="I75" s="71"/>
       <c r="J75" s="67"/>
       <c r="K75" s="134"/>
       <c r="L75" s="147"/>
-      <c r="M75" s="209">
+      <c r="M75" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17360,10 +17384,10 @@
       <c r="CS75" s="156"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="249"/>
+      <c r="A76" s="246"/>
       <c r="B76" s="69"/>
       <c r="C76" s="134"/>
-      <c r="D76" s="232"/>
+      <c r="D76" s="229"/>
       <c r="E76" s="197"/>
       <c r="F76" s="150"/>
       <c r="G76" s="156"/>
@@ -17372,7 +17396,7 @@
       <c r="J76" s="187"/>
       <c r="K76" s="187"/>
       <c r="L76" s="147"/>
-      <c r="M76" s="209">
+      <c r="M76" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17462,19 +17486,19 @@
       <c r="CS76" s="156"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="249"/>
+      <c r="A77" s="246"/>
       <c r="B77" s="69"/>
       <c r="C77" s="134"/>
-      <c r="D77" s="232"/>
+      <c r="D77" s="229"/>
       <c r="E77" s="197"/>
       <c r="F77" s="150"/>
       <c r="G77" s="156"/>
-      <c r="H77" s="208"/>
+      <c r="H77" s="206"/>
       <c r="I77" s="71"/>
       <c r="J77" s="67"/>
       <c r="K77" s="189"/>
       <c r="L77" s="147"/>
-      <c r="M77" s="209">
+      <c r="M77" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17564,7 +17588,7 @@
       <c r="CS77" s="156"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="249" t="s">
+      <c r="A78" s="246" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="69" t="s">
@@ -17573,7 +17597,7 @@
       <c r="C78" s="134">
         <v>1739992171</v>
       </c>
-      <c r="D78" s="232">
+      <c r="D78" s="229">
         <v>17500</v>
       </c>
       <c r="E78" s="196" t="s">
@@ -17581,7 +17605,7 @@
       </c>
       <c r="F78" s="150"/>
       <c r="G78" s="156"/>
-      <c r="H78" s="208" t="s">
+      <c r="H78" s="206" t="s">
         <v>63</v>
       </c>
       <c r="I78" s="71">
@@ -17596,7 +17620,7 @@
       <c r="L78" s="147">
         <v>17500</v>
       </c>
-      <c r="M78" s="209">
+      <c r="M78" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17686,7 +17710,7 @@
       <c r="CS78" s="156"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="249" t="s">
+      <c r="A79" s="246" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="69" t="s">
@@ -17695,7 +17719,7 @@
       <c r="C79" s="134">
         <v>1758900692</v>
       </c>
-      <c r="D79" s="232">
+      <c r="D79" s="229">
         <v>30000</v>
       </c>
       <c r="E79" s="197" t="s">
@@ -17703,7 +17727,7 @@
       </c>
       <c r="F79" s="150"/>
       <c r="G79" s="156"/>
-      <c r="H79" s="208" t="s">
+      <c r="H79" s="206" t="s">
         <v>180</v>
       </c>
       <c r="I79" s="71">
@@ -17718,7 +17742,7 @@
       <c r="L79" s="147">
         <v>30000</v>
       </c>
-      <c r="M79" s="209">
+      <c r="M79" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17808,14 +17832,14 @@
       <c r="CS79" s="156"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="249" t="s">
+      <c r="A80" s="246" t="s">
         <v>124</v>
       </c>
       <c r="B80" s="135" t="s">
         <v>174</v>
       </c>
       <c r="C80" s="134"/>
-      <c r="D80" s="232">
+      <c r="D80" s="229">
         <v>13100</v>
       </c>
       <c r="E80" s="197" t="s">
@@ -17825,7 +17849,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="156"/>
-      <c r="H80" s="208" t="s">
+      <c r="H80" s="206" t="s">
         <v>174</v>
       </c>
       <c r="I80" s="71"/>
@@ -17838,7 +17862,7 @@
       <c r="L80" s="147">
         <v>13100</v>
       </c>
-      <c r="M80" s="209">
+      <c r="M80" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17928,7 +17952,7 @@
       <c r="CS80" s="156"/>
     </row>
     <row r="81" spans="1:97">
-      <c r="A81" s="249" t="s">
+      <c r="A81" s="246" t="s">
         <v>147</v>
       </c>
       <c r="B81" s="69" t="s">
@@ -17937,7 +17961,7 @@
       <c r="C81" s="134">
         <v>1732469191</v>
       </c>
-      <c r="D81" s="232">
+      <c r="D81" s="229">
         <v>7130</v>
       </c>
       <c r="E81" s="198" t="s">
@@ -17945,7 +17969,7 @@
       </c>
       <c r="F81" s="150"/>
       <c r="G81" s="156"/>
-      <c r="H81" s="208" t="s">
+      <c r="H81" s="206" t="s">
         <v>148</v>
       </c>
       <c r="I81" s="71">
@@ -17960,7 +17984,7 @@
       <c r="L81" s="147">
         <v>14250</v>
       </c>
-      <c r="M81" s="209">
+      <c r="M81" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18050,7 +18074,7 @@
       <c r="CS81" s="156"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="249" t="s">
+      <c r="A82" s="246" t="s">
         <v>120</v>
       </c>
       <c r="B82" s="69" t="s">
@@ -18059,7 +18083,7 @@
       <c r="C82" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="232">
+      <c r="D82" s="229">
         <v>9000</v>
       </c>
       <c r="E82" s="197" t="s">
@@ -18067,7 +18091,7 @@
       </c>
       <c r="F82" s="152"/>
       <c r="G82" s="156"/>
-      <c r="H82" s="208" t="s">
+      <c r="H82" s="206" t="s">
         <v>110</v>
       </c>
       <c r="I82" s="71" t="s">
@@ -18082,7 +18106,7 @@
       <c r="L82" s="147">
         <v>9000</v>
       </c>
-      <c r="M82" s="209">
+      <c r="M82" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18172,14 +18196,14 @@
       <c r="CS82" s="156"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="249" t="s">
+      <c r="A83" s="246" t="s">
         <v>120</v>
       </c>
       <c r="B83" s="69" t="s">
         <v>189</v>
       </c>
       <c r="C83" s="134"/>
-      <c r="D83" s="232">
+      <c r="D83" s="229">
         <v>32540</v>
       </c>
       <c r="E83" s="198" t="s">
@@ -18187,12 +18211,12 @@
       </c>
       <c r="F83" s="152"/>
       <c r="G83" s="156"/>
-      <c r="H83" s="208"/>
+      <c r="H83" s="206"/>
       <c r="I83" s="71"/>
       <c r="J83" s="67"/>
       <c r="K83" s="189"/>
       <c r="L83" s="147"/>
-      <c r="M83" s="209">
+      <c r="M83" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18282,14 +18306,14 @@
       <c r="CS83" s="156"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="249" t="s">
+      <c r="A84" s="246" t="s">
         <v>167</v>
       </c>
       <c r="B84" s="69" t="s">
         <v>145</v>
       </c>
       <c r="C84" s="134"/>
-      <c r="D84" s="232">
+      <c r="D84" s="229">
         <v>11000</v>
       </c>
       <c r="E84" s="197" t="s">
@@ -18297,7 +18321,7 @@
       </c>
       <c r="F84" s="152"/>
       <c r="G84" s="156"/>
-      <c r="H84" s="208" t="s">
+      <c r="H84" s="206" t="s">
         <v>145</v>
       </c>
       <c r="I84" s="71"/>
@@ -18310,7 +18334,7 @@
       <c r="L84" s="147">
         <v>6000</v>
       </c>
-      <c r="M84" s="209">
+      <c r="M84" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18400,14 +18424,14 @@
       <c r="CS84" s="156"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="249" t="s">
+      <c r="A85" s="246" t="s">
         <v>194</v>
       </c>
       <c r="B85" s="69" t="s">
         <v>195</v>
       </c>
       <c r="C85" s="134"/>
-      <c r="D85" s="232">
+      <c r="D85" s="229">
         <v>10000</v>
       </c>
       <c r="E85" s="196" t="s">
@@ -18415,12 +18439,12 @@
       </c>
       <c r="F85" s="152"/>
       <c r="G85" s="156"/>
-      <c r="H85" s="208"/>
+      <c r="H85" s="206"/>
       <c r="I85" s="71"/>
       <c r="J85" s="67"/>
       <c r="K85" s="189"/>
       <c r="L85" s="147"/>
-      <c r="M85" s="209">
+      <c r="M85" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18510,14 +18534,14 @@
       <c r="CS85" s="156"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="249" t="s">
+      <c r="A86" s="246" t="s">
         <v>161</v>
       </c>
       <c r="B86" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C86" s="134"/>
-      <c r="D86" s="232">
+      <c r="D86" s="229">
         <v>35000</v>
       </c>
       <c r="E86" s="197" t="s">
@@ -18525,7 +18549,7 @@
       </c>
       <c r="F86" s="152"/>
       <c r="G86" s="156"/>
-      <c r="H86" s="208" t="s">
+      <c r="H86" s="206" t="s">
         <v>160</v>
       </c>
       <c r="I86" s="71"/>
@@ -18538,7 +18562,7 @@
       <c r="L86" s="147">
         <v>10000</v>
       </c>
-      <c r="M86" s="209">
+      <c r="M86" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18628,12 +18652,12 @@
       <c r="CS86" s="156"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="249"/>
+      <c r="A87" s="246"/>
       <c r="B87" s="69" t="s">
         <v>200</v>
       </c>
       <c r="C87" s="134"/>
-      <c r="D87" s="232">
+      <c r="D87" s="229">
         <v>2200</v>
       </c>
       <c r="E87" s="196" t="s">
@@ -18641,7 +18665,7 @@
       </c>
       <c r="F87" s="150"/>
       <c r="G87" s="156"/>
-      <c r="H87" s="208" t="s">
+      <c r="H87" s="206" t="s">
         <v>183</v>
       </c>
       <c r="I87" s="71"/>
@@ -18654,7 +18678,7 @@
       <c r="L87" s="147">
         <v>8800</v>
       </c>
-      <c r="M87" s="209">
+      <c r="M87" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18744,14 +18768,14 @@
       <c r="CS87" s="156"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="249"/>
+      <c r="A88" s="246"/>
       <c r="B88" s="69"/>
       <c r="C88" s="134"/>
-      <c r="D88" s="232"/>
+      <c r="D88" s="229"/>
       <c r="E88" s="198"/>
       <c r="F88" s="150"/>
       <c r="G88" s="156"/>
-      <c r="H88" s="208" t="s">
+      <c r="H88" s="206" t="s">
         <v>58</v>
       </c>
       <c r="I88" s="71">
@@ -18766,7 +18790,7 @@
       <c r="L88" s="147">
         <v>17500</v>
       </c>
-      <c r="M88" s="209">
+      <c r="M88" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18856,14 +18880,14 @@
       <c r="CS88" s="156"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="292"/>
+      <c r="A89" s="289"/>
       <c r="B89" s="69"/>
       <c r="C89" s="134"/>
-      <c r="D89" s="232"/>
+      <c r="D89" s="229"/>
       <c r="E89" s="197"/>
       <c r="F89" s="150"/>
       <c r="G89" s="156"/>
-      <c r="H89" s="208" t="s">
+      <c r="H89" s="206" t="s">
         <v>150</v>
       </c>
       <c r="I89" s="71">
@@ -18878,7 +18902,7 @@
       <c r="L89" s="147">
         <v>3500</v>
       </c>
-      <c r="M89" s="209">
+      <c r="M89" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18968,14 +18992,14 @@
       <c r="CS89" s="156"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="248"/>
+      <c r="A90" s="245"/>
       <c r="B90" s="69"/>
       <c r="C90" s="134"/>
-      <c r="D90" s="232"/>
+      <c r="D90" s="229"/>
       <c r="E90" s="197"/>
       <c r="F90" s="150"/>
       <c r="G90" s="156"/>
-      <c r="H90" s="208" t="s">
+      <c r="H90" s="206" t="s">
         <v>40</v>
       </c>
       <c r="I90" s="71">
@@ -18990,7 +19014,7 @@
       <c r="L90" s="147">
         <v>4300</v>
       </c>
-      <c r="M90" s="209">
+      <c r="M90" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19080,10 +19104,10 @@
       <c r="CS90" s="156"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="248"/>
+      <c r="A91" s="245"/>
       <c r="B91" s="69"/>
       <c r="C91" s="134"/>
-      <c r="D91" s="232"/>
+      <c r="D91" s="229"/>
       <c r="E91" s="198"/>
       <c r="F91" s="150"/>
       <c r="G91" s="156"/>
@@ -19102,7 +19126,7 @@
       <c r="L91" s="147">
         <v>1000</v>
       </c>
-      <c r="M91" s="209">
+      <c r="M91" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19192,14 +19216,14 @@
       <c r="CS91" s="156"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="249"/>
+      <c r="A92" s="246"/>
       <c r="B92" s="69"/>
       <c r="C92" s="134"/>
-      <c r="D92" s="232"/>
+      <c r="D92" s="229"/>
       <c r="E92" s="197"/>
       <c r="F92" s="156"/>
       <c r="G92" s="156"/>
-      <c r="H92" s="208" t="s">
+      <c r="H92" s="206" t="s">
         <v>176</v>
       </c>
       <c r="I92" s="71" t="s">
@@ -19214,7 +19238,7 @@
       <c r="L92" s="147">
         <v>1180</v>
       </c>
-      <c r="M92" s="209">
+      <c r="M92" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19304,19 +19328,19 @@
       <c r="CS92" s="156"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="249"/>
+      <c r="A93" s="246"/>
       <c r="B93" s="69"/>
       <c r="C93" s="134"/>
-      <c r="D93" s="232"/>
+      <c r="D93" s="229"/>
       <c r="E93" s="196"/>
       <c r="F93" s="156"/>
       <c r="G93" s="156"/>
-      <c r="H93" s="208"/>
+      <c r="H93" s="206"/>
       <c r="I93" s="71"/>
       <c r="J93" s="67"/>
       <c r="K93" s="67"/>
       <c r="L93" s="147"/>
-      <c r="M93" s="209">
+      <c r="M93" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19406,19 +19430,19 @@
       <c r="CS93" s="156"/>
     </row>
     <row r="94" spans="1:97">
-      <c r="A94" s="249"/>
+      <c r="A94" s="246"/>
       <c r="B94" s="68"/>
       <c r="C94" s="134"/>
-      <c r="D94" s="232"/>
+      <c r="D94" s="229"/>
       <c r="E94" s="197"/>
       <c r="F94" s="156"/>
       <c r="G94" s="156"/>
-      <c r="H94" s="208"/>
+      <c r="H94" s="206"/>
       <c r="I94" s="71"/>
       <c r="J94" s="67"/>
       <c r="K94" s="189"/>
       <c r="L94" s="147"/>
-      <c r="M94" s="209">
+      <c r="M94" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19508,10 +19532,10 @@
       <c r="CS94" s="156"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="249"/>
+      <c r="A95" s="246"/>
       <c r="B95" s="69"/>
       <c r="C95" s="134"/>
-      <c r="D95" s="234"/>
+      <c r="D95" s="231"/>
       <c r="E95" s="197"/>
       <c r="F95" s="156"/>
       <c r="G95" s="156"/>
@@ -19520,7 +19544,7 @@
       <c r="J95" s="187"/>
       <c r="K95" s="188"/>
       <c r="L95" s="147"/>
-      <c r="M95" s="209">
+      <c r="M95" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19610,19 +19634,19 @@
       <c r="CS95" s="156"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="249"/>
+      <c r="A96" s="246"/>
       <c r="B96" s="69"/>
       <c r="C96" s="134"/>
-      <c r="D96" s="232"/>
+      <c r="D96" s="229"/>
       <c r="E96" s="198"/>
       <c r="F96" s="156"/>
       <c r="G96" s="156"/>
-      <c r="H96" s="208"/>
+      <c r="H96" s="206"/>
       <c r="I96" s="71"/>
       <c r="J96" s="67"/>
       <c r="K96" s="134"/>
       <c r="L96" s="147"/>
-      <c r="M96" s="209">
+      <c r="M96" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19712,19 +19736,19 @@
       <c r="CS96" s="156"/>
     </row>
     <row r="97" spans="1:97">
-      <c r="A97" s="249"/>
+      <c r="A97" s="246"/>
       <c r="B97" s="69"/>
-      <c r="C97" s="251"/>
-      <c r="D97" s="232"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="229"/>
       <c r="E97" s="198"/>
       <c r="F97" s="156"/>
       <c r="G97" s="156"/>
-      <c r="H97" s="208"/>
+      <c r="H97" s="206"/>
       <c r="I97" s="71"/>
       <c r="J97" s="67"/>
       <c r="K97" s="67"/>
       <c r="L97" s="147"/>
-      <c r="M97" s="209">
+      <c r="M97" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19814,10 +19838,10 @@
       <c r="CS97" s="156"/>
     </row>
     <row r="98" spans="1:97">
-      <c r="A98" s="249"/>
+      <c r="A98" s="246"/>
       <c r="B98" s="68"/>
       <c r="C98" s="67"/>
-      <c r="D98" s="232"/>
+      <c r="D98" s="229"/>
       <c r="E98" s="197"/>
       <c r="F98" s="156"/>
       <c r="G98" s="156"/>
@@ -19826,7 +19850,7 @@
       <c r="J98" s="187"/>
       <c r="K98" s="188"/>
       <c r="L98" s="147"/>
-      <c r="M98" s="209">
+      <c r="M98" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19916,19 +19940,19 @@
       <c r="CS98" s="156"/>
     </row>
     <row r="99" spans="1:97">
-      <c r="A99" s="249"/>
+      <c r="A99" s="246"/>
       <c r="B99" s="69"/>
       <c r="C99" s="134"/>
-      <c r="D99" s="232"/>
+      <c r="D99" s="229"/>
       <c r="E99" s="196"/>
       <c r="F99" s="156"/>
       <c r="G99" s="156"/>
-      <c r="H99" s="208"/>
+      <c r="H99" s="206"/>
       <c r="I99" s="71"/>
       <c r="J99" s="67"/>
       <c r="K99" s="189"/>
       <c r="L99" s="147"/>
-      <c r="M99" s="209">
+      <c r="M99" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20018,19 +20042,19 @@
       <c r="CS99" s="156"/>
     </row>
     <row r="100" spans="1:97">
-      <c r="A100" s="249"/>
+      <c r="A100" s="246"/>
       <c r="B100" s="69"/>
       <c r="C100" s="134"/>
-      <c r="D100" s="232"/>
+      <c r="D100" s="229"/>
       <c r="E100" s="198"/>
       <c r="F100" s="156"/>
       <c r="G100" s="156"/>
-      <c r="H100" s="208"/>
+      <c r="H100" s="206"/>
       <c r="I100" s="71"/>
       <c r="J100" s="67"/>
       <c r="K100" s="189"/>
       <c r="L100" s="147"/>
-      <c r="M100" s="209">
+      <c r="M100" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20120,10 +20144,10 @@
       <c r="CS100" s="156"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="249"/>
+      <c r="A101" s="246"/>
       <c r="B101" s="69"/>
       <c r="C101" s="134"/>
-      <c r="D101" s="232"/>
+      <c r="D101" s="229"/>
       <c r="E101" s="198"/>
       <c r="F101" s="156"/>
       <c r="G101" s="156"/>
@@ -20132,7 +20156,7 @@
       <c r="J101" s="187"/>
       <c r="K101" s="188"/>
       <c r="L101" s="147"/>
-      <c r="M101" s="209">
+      <c r="M101" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20222,10 +20246,10 @@
       <c r="CS101" s="156"/>
     </row>
     <row r="102" spans="1:97">
-      <c r="A102" s="249"/>
+      <c r="A102" s="246"/>
       <c r="B102" s="69"/>
       <c r="C102" s="134"/>
-      <c r="D102" s="232"/>
+      <c r="D102" s="229"/>
       <c r="E102" s="198"/>
       <c r="F102" s="156"/>
       <c r="G102" s="156"/>
@@ -20234,7 +20258,7 @@
       <c r="J102" s="187"/>
       <c r="K102" s="188"/>
       <c r="L102" s="147"/>
-      <c r="M102" s="209">
+      <c r="M102" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20324,10 +20348,10 @@
       <c r="CS102" s="156"/>
     </row>
     <row r="103" spans="1:97">
-      <c r="A103" s="249"/>
+      <c r="A103" s="246"/>
       <c r="B103" s="69"/>
       <c r="C103" s="134"/>
-      <c r="D103" s="232"/>
+      <c r="D103" s="229"/>
       <c r="E103" s="198"/>
       <c r="F103" s="156"/>
       <c r="G103" s="156"/>
@@ -20336,7 +20360,7 @@
       <c r="J103" s="187"/>
       <c r="K103" s="188"/>
       <c r="L103" s="147"/>
-      <c r="M103" s="209">
+      <c r="M103" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20426,19 +20450,19 @@
       <c r="CS103" s="156"/>
     </row>
     <row r="104" spans="1:97">
-      <c r="A104" s="249"/>
+      <c r="A104" s="246"/>
       <c r="B104" s="69"/>
       <c r="C104" s="134"/>
-      <c r="D104" s="232"/>
+      <c r="D104" s="229"/>
       <c r="E104" s="198"/>
       <c r="F104" s="156"/>
       <c r="G104" s="156"/>
-      <c r="H104" s="208"/>
+      <c r="H104" s="206"/>
       <c r="I104" s="71"/>
       <c r="J104" s="67"/>
       <c r="K104" s="189"/>
       <c r="L104" s="147"/>
-      <c r="M104" s="209">
+      <c r="M104" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20528,19 +20552,19 @@
       <c r="CS104" s="156"/>
     </row>
     <row r="105" spans="1:97">
-      <c r="A105" s="249"/>
+      <c r="A105" s="246"/>
       <c r="B105" s="69"/>
       <c r="C105" s="134"/>
-      <c r="D105" s="232"/>
+      <c r="D105" s="229"/>
       <c r="E105" s="197"/>
       <c r="F105" s="156"/>
       <c r="G105" s="156"/>
-      <c r="H105" s="208"/>
+      <c r="H105" s="206"/>
       <c r="I105" s="71"/>
       <c r="J105" s="67"/>
       <c r="K105" s="134"/>
       <c r="L105" s="147"/>
-      <c r="M105" s="209">
+      <c r="M105" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20630,19 +20654,19 @@
       <c r="CS105" s="156"/>
     </row>
     <row r="106" spans="1:97">
-      <c r="A106" s="249"/>
+      <c r="A106" s="246"/>
       <c r="B106" s="69"/>
       <c r="C106" s="134"/>
-      <c r="D106" s="232"/>
+      <c r="D106" s="229"/>
       <c r="E106" s="198"/>
       <c r="F106" s="156"/>
       <c r="G106" s="156"/>
-      <c r="H106" s="208"/>
+      <c r="H106" s="206"/>
       <c r="I106" s="71"/>
       <c r="J106" s="67"/>
       <c r="K106" s="189"/>
       <c r="L106" s="147"/>
-      <c r="M106" s="209">
+      <c r="M106" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20732,10 +20756,10 @@
       <c r="CS106" s="156"/>
     </row>
     <row r="107" spans="1:97">
-      <c r="A107" s="249"/>
+      <c r="A107" s="246"/>
       <c r="B107" s="69"/>
       <c r="C107" s="134"/>
-      <c r="D107" s="232"/>
+      <c r="D107" s="229"/>
       <c r="E107" s="198"/>
       <c r="F107" s="156"/>
       <c r="G107" s="156"/>
@@ -20744,7 +20768,7 @@
       <c r="J107" s="187"/>
       <c r="K107" s="188"/>
       <c r="L107" s="147"/>
-      <c r="M107" s="209">
+      <c r="M107" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20834,10 +20858,10 @@
       <c r="CS107" s="156"/>
     </row>
     <row r="108" spans="1:97">
-      <c r="A108" s="249"/>
+      <c r="A108" s="246"/>
       <c r="B108" s="69"/>
       <c r="C108" s="134"/>
-      <c r="D108" s="232"/>
+      <c r="D108" s="229"/>
       <c r="E108" s="198"/>
       <c r="F108" s="156"/>
       <c r="G108" s="156" t="s">
@@ -20848,7 +20872,7 @@
       <c r="J108" s="187"/>
       <c r="K108" s="188"/>
       <c r="L108" s="147"/>
-      <c r="M108" s="209">
+      <c r="M108" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20938,10 +20962,10 @@
       <c r="CS108" s="156"/>
     </row>
     <row r="109" spans="1:97">
-      <c r="A109" s="249"/>
+      <c r="A109" s="246"/>
       <c r="B109" s="69"/>
       <c r="C109" s="134"/>
-      <c r="D109" s="232"/>
+      <c r="D109" s="229"/>
       <c r="E109" s="198"/>
       <c r="F109" s="156"/>
       <c r="G109" s="156"/>
@@ -20950,7 +20974,7 @@
       <c r="J109" s="187"/>
       <c r="K109" s="188"/>
       <c r="L109" s="147"/>
-      <c r="M109" s="209">
+      <c r="M109" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21040,19 +21064,19 @@
       <c r="CS109" s="156"/>
     </row>
     <row r="110" spans="1:97">
-      <c r="A110" s="249"/>
+      <c r="A110" s="246"/>
       <c r="B110" s="69"/>
       <c r="C110" s="134"/>
-      <c r="D110" s="232"/>
+      <c r="D110" s="229"/>
       <c r="E110" s="198"/>
       <c r="F110" s="156"/>
       <c r="G110" s="156"/>
-      <c r="H110" s="210"/>
+      <c r="H110" s="208"/>
       <c r="I110" s="77"/>
       <c r="J110" s="67"/>
       <c r="K110" s="189"/>
       <c r="L110" s="147"/>
-      <c r="M110" s="209">
+      <c r="M110" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21142,19 +21166,19 @@
       <c r="CS110" s="156"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="249"/>
+      <c r="A111" s="246"/>
       <c r="B111" s="69"/>
       <c r="C111" s="134"/>
-      <c r="D111" s="232"/>
+      <c r="D111" s="229"/>
       <c r="E111" s="198"/>
       <c r="F111" s="156"/>
       <c r="G111" s="156"/>
-      <c r="H111" s="208"/>
+      <c r="H111" s="206"/>
       <c r="I111" s="71"/>
       <c r="J111" s="67"/>
       <c r="K111" s="189"/>
       <c r="L111" s="147"/>
-      <c r="M111" s="209">
+      <c r="M111" s="207">
         <f>SUM(J111-L111)</f>
         <v>0</v>
       </c>
@@ -21244,19 +21268,19 @@
       <c r="CS111" s="156"/>
     </row>
     <row r="112" spans="1:97">
-      <c r="A112" s="249"/>
+      <c r="A112" s="246"/>
       <c r="B112" s="68"/>
-      <c r="C112" s="251"/>
-      <c r="D112" s="232"/>
+      <c r="C112" s="248"/>
+      <c r="D112" s="229"/>
       <c r="E112" s="198"/>
       <c r="F112" s="156"/>
       <c r="G112" s="156"/>
-      <c r="H112" s="208"/>
+      <c r="H112" s="206"/>
       <c r="I112" s="71"/>
       <c r="J112" s="67"/>
       <c r="K112" s="189"/>
       <c r="L112" s="147"/>
-      <c r="M112" s="209">
+      <c r="M112" s="207">
         <f>SUM(J112-L112)</f>
         <v>0</v>
       </c>
@@ -21346,19 +21370,19 @@
       <c r="CS112" s="156"/>
     </row>
     <row r="113" spans="1:97">
-      <c r="A113" s="249"/>
+      <c r="A113" s="246"/>
       <c r="B113" s="69"/>
       <c r="C113" s="134"/>
-      <c r="D113" s="232"/>
+      <c r="D113" s="229"/>
       <c r="E113" s="198"/>
       <c r="F113" s="156"/>
       <c r="G113" s="156"/>
-      <c r="H113" s="208"/>
+      <c r="H113" s="206"/>
       <c r="I113" s="71"/>
       <c r="J113" s="67"/>
       <c r="K113" s="67"/>
       <c r="L113" s="147"/>
-      <c r="M113" s="209">
+      <c r="M113" s="207">
         <f t="shared" ref="M113:M120" si="3">SUM(J113-L113)</f>
         <v>0</v>
       </c>
@@ -21448,19 +21472,19 @@
       <c r="CS113" s="156"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="249"/>
+      <c r="A114" s="246"/>
       <c r="B114" s="69"/>
       <c r="C114" s="134"/>
-      <c r="D114" s="232"/>
+      <c r="D114" s="229"/>
       <c r="E114" s="198"/>
       <c r="F114" s="156"/>
       <c r="G114" s="156"/>
-      <c r="H114" s="208"/>
+      <c r="H114" s="206"/>
       <c r="I114" s="71"/>
       <c r="J114" s="67"/>
       <c r="K114" s="189"/>
       <c r="L114" s="147"/>
-      <c r="M114" s="209">
+      <c r="M114" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21550,14 +21574,14 @@
       <c r="CS114" s="156"/>
     </row>
     <row r="115" spans="1:97">
-      <c r="A115" s="249" t="s">
+      <c r="A115" s="246" t="s">
         <v>201</v>
       </c>
       <c r="B115" s="69" t="s">
         <v>202</v>
       </c>
       <c r="C115" s="134"/>
-      <c r="D115" s="232">
+      <c r="D115" s="229">
         <v>20000</v>
       </c>
       <c r="E115" s="198" t="s">
@@ -21565,12 +21589,12 @@
       </c>
       <c r="F115" s="156"/>
       <c r="G115" s="156"/>
-      <c r="H115" s="208"/>
+      <c r="H115" s="206"/>
       <c r="I115" s="71"/>
       <c r="J115" s="67"/>
       <c r="K115" s="189"/>
       <c r="L115" s="147"/>
-      <c r="M115" s="209">
+      <c r="M115" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21660,7 +21684,7 @@
       <c r="CS115" s="156"/>
     </row>
     <row r="116" spans="1:97">
-      <c r="A116" s="249" t="s">
+      <c r="A116" s="246" t="s">
         <v>125</v>
       </c>
       <c r="B116" s="69" t="s">
@@ -21669,7 +21693,7 @@
       <c r="C116" s="134">
         <v>1755626210</v>
       </c>
-      <c r="D116" s="232">
+      <c r="D116" s="229">
         <v>17500</v>
       </c>
       <c r="E116" s="198" t="s">
@@ -21682,7 +21706,7 @@
       <c r="J116" s="187"/>
       <c r="K116" s="188"/>
       <c r="L116" s="147"/>
-      <c r="M116" s="209">
+      <c r="M116" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21772,7 +21796,7 @@
       <c r="CS116" s="156"/>
     </row>
     <row r="117" spans="1:97">
-      <c r="A117" s="249" t="s">
+      <c r="A117" s="246" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="69" t="s">
@@ -21781,7 +21805,7 @@
       <c r="C117" s="134">
         <v>1746818159</v>
       </c>
-      <c r="D117" s="232">
+      <c r="D117" s="229">
         <v>3500</v>
       </c>
       <c r="E117" s="198" t="s">
@@ -21789,12 +21813,12 @@
       </c>
       <c r="F117" s="156"/>
       <c r="G117" s="156"/>
-      <c r="H117" s="208"/>
+      <c r="H117" s="206"/>
       <c r="I117" s="71"/>
       <c r="J117" s="67"/>
       <c r="K117" s="189"/>
       <c r="L117" s="147"/>
-      <c r="M117" s="209">
+      <c r="M117" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21884,7 +21908,7 @@
       <c r="CS117" s="156"/>
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A118" s="250" t="s">
+      <c r="A118" s="247" t="s">
         <v>169</v>
       </c>
       <c r="B118" s="192" t="s">
@@ -21893,7 +21917,7 @@
       <c r="C118" s="134">
         <v>1713632915</v>
       </c>
-      <c r="D118" s="303">
+      <c r="D118" s="300">
         <v>4300</v>
       </c>
       <c r="E118" s="199" t="s">
@@ -21906,7 +21930,7 @@
       <c r="J118" s="187"/>
       <c r="K118" s="189"/>
       <c r="L118" s="147"/>
-      <c r="M118" s="209">
+      <c r="M118" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21996,23 +22020,23 @@
       <c r="CS118" s="156"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="336" t="s">
+      <c r="A119" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="337"/>
-      <c r="C119" s="349"/>
-      <c r="D119" s="235">
+      <c r="B119" s="338"/>
+      <c r="C119" s="350"/>
+      <c r="D119" s="232">
         <f>SUM(D37:D118)</f>
         <v>2003971</v>
       </c>
-      <c r="E119" s="227"/>
+      <c r="E119" s="225"/>
       <c r="F119" s="156"/>
       <c r="H119" s="193"/>
       <c r="I119" s="72"/>
       <c r="J119" s="187"/>
       <c r="K119" s="189"/>
       <c r="L119" s="147"/>
-      <c r="M119" s="209">
+      <c r="M119" s="207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22108,12 +22132,12 @@
       <c r="E120" s="76"/>
       <c r="F120" s="156"/>
       <c r="G120" s="156"/>
-      <c r="H120" s="217"/>
-      <c r="I120" s="218"/>
-      <c r="J120" s="219"/>
-      <c r="K120" s="220"/>
-      <c r="L120" s="221"/>
-      <c r="M120" s="222">
+      <c r="H120" s="215"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="217"/>
+      <c r="K120" s="218"/>
+      <c r="L120" s="219"/>
+      <c r="M120" s="220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22203,30 +22227,30 @@
       <c r="CS120" s="156"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="336" t="s">
+      <c r="A121" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="B121" s="337"/>
-      <c r="C121" s="337"/>
-      <c r="D121" s="235">
+      <c r="B121" s="338"/>
+      <c r="C121" s="338"/>
+      <c r="D121" s="232">
         <f>D119+M121</f>
         <v>2003971</v>
       </c>
-      <c r="E121" s="227"/>
+      <c r="E121" s="225"/>
       <c r="F121" s="156"/>
       <c r="G121" s="156"/>
-      <c r="H121" s="239"/>
-      <c r="I121" s="206"/>
-      <c r="J121" s="240">
+      <c r="H121" s="236"/>
+      <c r="I121" s="204"/>
+      <c r="J121" s="237">
         <f>SUM(J46:J120)</f>
         <v>2183921</v>
       </c>
-      <c r="K121" s="241"/>
-      <c r="L121" s="242">
+      <c r="K121" s="238"/>
+      <c r="L121" s="239">
         <f>SUM(L46:L120)</f>
         <v>2183921</v>
       </c>
-      <c r="M121" s="243">
+      <c r="M121" s="240">
         <f>SUM(J121-L121)</f>
         <v>0</v>
       </c>
@@ -22319,7 +22343,7 @@
       <c r="A122" s="156"/>
       <c r="B122" s="181"/>
       <c r="C122" s="181"/>
-      <c r="D122" s="236"/>
+      <c r="D122" s="233"/>
       <c r="E122" s="156"/>
       <c r="F122" s="156"/>
       <c r="G122" s="76"/>
@@ -23111,7 +23135,7 @@
       <c r="A130" s="156"/>
       <c r="B130" s="181"/>
       <c r="C130" s="181"/>
-      <c r="D130" s="236"/>
+      <c r="D130" s="233"/>
       <c r="E130" s="156"/>
       <c r="F130" s="156"/>
       <c r="G130" s="76"/>
@@ -23210,7 +23234,7 @@
       <c r="A131" s="156"/>
       <c r="B131" s="181"/>
       <c r="C131" s="181"/>
-      <c r="D131" s="236"/>
+      <c r="D131" s="233"/>
       <c r="E131" s="156"/>
       <c r="F131" s="156"/>
       <c r="G131" s="76"/>
@@ -23309,7 +23333,7 @@
       <c r="A132" s="156"/>
       <c r="B132" s="181"/>
       <c r="C132" s="181"/>
-      <c r="D132" s="237"/>
+      <c r="D132" s="234"/>
       <c r="E132" s="156"/>
       <c r="F132" s="156"/>
       <c r="G132" s="76"/>
@@ -23408,7 +23432,7 @@
       <c r="A133" s="156"/>
       <c r="B133" s="181"/>
       <c r="C133" s="181"/>
-      <c r="D133" s="237"/>
+      <c r="D133" s="234"/>
       <c r="E133" s="156"/>
       <c r="F133" s="156"/>
       <c r="G133" s="76"/>
@@ -23507,7 +23531,7 @@
       <c r="A134" s="156"/>
       <c r="B134" s="181"/>
       <c r="C134" s="181"/>
-      <c r="D134" s="237"/>
+      <c r="D134" s="234"/>
       <c r="E134" s="156"/>
       <c r="F134" s="156"/>
       <c r="G134" s="76"/>
@@ -23606,7 +23630,7 @@
       <c r="A135" s="156"/>
       <c r="B135" s="181"/>
       <c r="C135" s="181"/>
-      <c r="D135" s="237"/>
+      <c r="D135" s="234"/>
       <c r="E135" s="156"/>
       <c r="F135" s="156"/>
       <c r="G135" s="76"/>
@@ -23705,7 +23729,7 @@
       <c r="A136" s="156"/>
       <c r="B136" s="181"/>
       <c r="C136" s="181"/>
-      <c r="D136" s="237"/>
+      <c r="D136" s="234"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
       <c r="G136" s="76"/>
@@ -23804,7 +23828,7 @@
       <c r="A137" s="156"/>
       <c r="B137" s="174"/>
       <c r="C137" s="174"/>
-      <c r="D137" s="238"/>
+      <c r="D137" s="235"/>
       <c r="E137" s="76"/>
       <c r="F137" s="76"/>
       <c r="G137" s="76"/>
@@ -23903,7 +23927,7 @@
       <c r="A138" s="156"/>
       <c r="B138" s="174"/>
       <c r="C138" s="174"/>
-      <c r="D138" s="238"/>
+      <c r="D138" s="235"/>
       <c r="E138" s="76"/>
       <c r="F138" s="76"/>
       <c r="G138" s="76"/>
@@ -24002,7 +24026,7 @@
       <c r="A139" s="76"/>
       <c r="B139" s="174"/>
       <c r="C139" s="174"/>
-      <c r="D139" s="238"/>
+      <c r="D139" s="235"/>
       <c r="E139" s="76"/>
       <c r="F139" s="76"/>
       <c r="G139" s="76"/>
@@ -24100,7 +24124,7 @@
     <row r="140" spans="1:97" s="156" customFormat="1">
       <c r="B140" s="174"/>
       <c r="C140" s="174"/>
-      <c r="D140" s="238"/>
+      <c r="D140" s="235"/>
       <c r="E140" s="76"/>
       <c r="F140" s="76"/>
       <c r="G140" s="76"/>
@@ -24162,7 +24186,7 @@
     <row r="141" spans="1:97" s="156" customFormat="1">
       <c r="B141" s="174"/>
       <c r="C141" s="174"/>
-      <c r="D141" s="238"/>
+      <c r="D141" s="235"/>
       <c r="E141" s="76"/>
       <c r="F141" s="76"/>
       <c r="G141" s="76"/>
@@ -24187,7 +24211,7 @@
     <row r="142" spans="1:97" s="156" customFormat="1">
       <c r="B142" s="181"/>
       <c r="C142" s="181"/>
-      <c r="D142" s="237"/>
+      <c r="D142" s="234"/>
       <c r="G142" s="76"/>
       <c r="H142" s="76"/>
       <c r="I142" s="161"/>
@@ -24210,7 +24234,7 @@
     <row r="143" spans="1:97" s="156" customFormat="1">
       <c r="B143" s="181"/>
       <c r="C143" s="181"/>
-      <c r="D143" s="237"/>
+      <c r="D143" s="234"/>
       <c r="G143" s="76"/>
       <c r="H143" s="76"/>
       <c r="I143" s="161"/>
@@ -24233,7 +24257,7 @@
     <row r="144" spans="1:97" s="156" customFormat="1">
       <c r="B144" s="181"/>
       <c r="C144" s="181"/>
-      <c r="D144" s="237"/>
+      <c r="D144" s="234"/>
       <c r="G144" s="76"/>
       <c r="H144" s="76"/>
       <c r="I144" s="161"/>
@@ -24256,7 +24280,7 @@
     <row r="145" spans="2:24" s="156" customFormat="1">
       <c r="B145" s="181"/>
       <c r="C145" s="181"/>
-      <c r="D145" s="237"/>
+      <c r="D145" s="234"/>
       <c r="G145" s="76"/>
       <c r="H145" s="76"/>
       <c r="I145" s="161"/>
@@ -24279,7 +24303,7 @@
     <row r="146" spans="2:24" s="156" customFormat="1">
       <c r="B146" s="181"/>
       <c r="C146" s="181"/>
-      <c r="D146" s="237"/>
+      <c r="D146" s="234"/>
       <c r="G146" s="76"/>
       <c r="H146" s="76"/>
       <c r="I146" s="161"/>
@@ -24302,7 +24326,7 @@
     <row r="147" spans="2:24" s="156" customFormat="1">
       <c r="B147" s="181"/>
       <c r="C147" s="181"/>
-      <c r="D147" s="237"/>
+      <c r="D147" s="234"/>
       <c r="G147" s="76"/>
       <c r="H147" s="76"/>
       <c r="I147" s="161"/>
@@ -24325,7 +24349,7 @@
     <row r="148" spans="2:24" s="156" customFormat="1">
       <c r="B148" s="181"/>
       <c r="C148" s="181"/>
-      <c r="D148" s="237"/>
+      <c r="D148" s="234"/>
       <c r="G148" s="76"/>
       <c r="H148" s="76"/>
       <c r="I148" s="161"/>
@@ -24345,7 +24369,7 @@
     <row r="149" spans="2:24" s="156" customFormat="1">
       <c r="B149" s="181"/>
       <c r="C149" s="181"/>
-      <c r="D149" s="237"/>
+      <c r="D149" s="234"/>
       <c r="G149" s="76"/>
       <c r="H149" s="76"/>
       <c r="I149" s="161"/>
@@ -24365,7 +24389,7 @@
     <row r="150" spans="2:24" s="156" customFormat="1">
       <c r="B150" s="181"/>
       <c r="C150" s="181"/>
-      <c r="D150" s="237"/>
+      <c r="D150" s="234"/>
       <c r="G150" s="76"/>
       <c r="H150" s="76"/>
       <c r="I150" s="161"/>
@@ -24385,7 +24409,7 @@
     <row r="151" spans="2:24" s="156" customFormat="1">
       <c r="B151" s="181"/>
       <c r="C151" s="181"/>
-      <c r="D151" s="237"/>
+      <c r="D151" s="234"/>
       <c r="G151" s="76"/>
       <c r="H151" s="76"/>
       <c r="I151" s="161"/>
@@ -24405,7 +24429,7 @@
     <row r="152" spans="2:24" s="156" customFormat="1">
       <c r="B152" s="181"/>
       <c r="C152" s="181"/>
-      <c r="D152" s="237"/>
+      <c r="D152" s="234"/>
       <c r="G152" s="76"/>
       <c r="H152" s="76"/>
       <c r="I152" s="161"/>
@@ -24425,7 +24449,7 @@
     <row r="153" spans="2:24" s="156" customFormat="1">
       <c r="B153" s="181"/>
       <c r="C153" s="181"/>
-      <c r="D153" s="237"/>
+      <c r="D153" s="234"/>
       <c r="G153" s="76"/>
       <c r="H153" s="76"/>
       <c r="I153" s="161"/>
@@ -24445,7 +24469,7 @@
     <row r="154" spans="2:24" s="156" customFormat="1">
       <c r="B154" s="181"/>
       <c r="C154" s="181"/>
-      <c r="D154" s="237"/>
+      <c r="D154" s="234"/>
       <c r="G154" s="76"/>
       <c r="H154" s="76"/>
       <c r="I154" s="161"/>
@@ -24465,7 +24489,7 @@
     <row r="155" spans="2:24" s="156" customFormat="1">
       <c r="B155" s="181"/>
       <c r="C155" s="181"/>
-      <c r="D155" s="237"/>
+      <c r="D155" s="234"/>
       <c r="G155" s="76"/>
       <c r="H155" s="76"/>
       <c r="I155" s="161"/>
@@ -24485,7 +24509,7 @@
     <row r="156" spans="2:24" s="156" customFormat="1">
       <c r="B156" s="181"/>
       <c r="C156" s="181"/>
-      <c r="D156" s="237"/>
+      <c r="D156" s="234"/>
       <c r="G156" s="76"/>
       <c r="H156" s="76"/>
       <c r="I156" s="161"/>
@@ -24505,7 +24529,7 @@
     <row r="157" spans="2:24" s="156" customFormat="1">
       <c r="B157" s="181"/>
       <c r="C157" s="181"/>
-      <c r="D157" s="237"/>
+      <c r="D157" s="234"/>
       <c r="G157" s="76"/>
       <c r="H157" s="76"/>
       <c r="I157" s="161"/>
@@ -24517,7 +24541,7 @@
     <row r="158" spans="2:24" s="156" customFormat="1">
       <c r="B158" s="181"/>
       <c r="C158" s="181"/>
-      <c r="D158" s="237"/>
+      <c r="D158" s="234"/>
       <c r="G158" s="76"/>
       <c r="H158" s="76"/>
       <c r="I158" s="161"/>
@@ -24529,7 +24553,7 @@
     <row r="159" spans="2:24" s="156" customFormat="1">
       <c r="B159" s="181"/>
       <c r="C159" s="181"/>
-      <c r="D159" s="237"/>
+      <c r="D159" s="234"/>
       <c r="G159" s="76"/>
       <c r="H159" s="76"/>
       <c r="I159" s="161"/>
@@ -24541,7 +24565,7 @@
     <row r="160" spans="2:24" s="156" customFormat="1">
       <c r="B160" s="181"/>
       <c r="C160" s="181"/>
-      <c r="D160" s="237"/>
+      <c r="D160" s="234"/>
       <c r="G160" s="76"/>
       <c r="H160" s="76"/>
       <c r="I160" s="161"/>
@@ -24553,7 +24577,7 @@
     <row r="161" spans="2:14" s="156" customFormat="1">
       <c r="B161" s="181"/>
       <c r="C161" s="181"/>
-      <c r="D161" s="237"/>
+      <c r="D161" s="234"/>
       <c r="G161" s="76"/>
       <c r="H161" s="76"/>
       <c r="I161" s="161"/>
@@ -24565,7 +24589,7 @@
     <row r="162" spans="2:14" s="156" customFormat="1">
       <c r="B162" s="181"/>
       <c r="C162" s="181"/>
-      <c r="D162" s="237"/>
+      <c r="D162" s="234"/>
       <c r="G162" s="76"/>
       <c r="H162" s="76"/>
       <c r="I162" s="161"/>
@@ -24577,7 +24601,7 @@
     <row r="163" spans="2:14" s="156" customFormat="1">
       <c r="B163" s="181"/>
       <c r="C163" s="181"/>
-      <c r="D163" s="237"/>
+      <c r="D163" s="234"/>
       <c r="G163" s="76"/>
       <c r="H163" s="76"/>
       <c r="I163" s="161"/>
@@ -24589,7 +24613,7 @@
     <row r="164" spans="2:14" s="156" customFormat="1">
       <c r="B164" s="181"/>
       <c r="C164" s="181"/>
-      <c r="D164" s="237"/>
+      <c r="D164" s="234"/>
       <c r="G164" s="76"/>
       <c r="H164" s="76"/>
       <c r="I164" s="161"/>
@@ -24601,7 +24625,7 @@
     <row r="165" spans="2:14" s="156" customFormat="1">
       <c r="B165" s="181"/>
       <c r="C165" s="181"/>
-      <c r="D165" s="237"/>
+      <c r="D165" s="234"/>
       <c r="G165" s="76"/>
       <c r="H165" s="76"/>
       <c r="I165" s="161"/>
@@ -24613,7 +24637,7 @@
     <row r="166" spans="2:14" s="156" customFormat="1">
       <c r="B166" s="181"/>
       <c r="C166" s="181"/>
-      <c r="D166" s="237"/>
+      <c r="D166" s="234"/>
       <c r="G166" s="76"/>
       <c r="H166" s="76"/>
       <c r="I166" s="161"/>
@@ -24625,7 +24649,7 @@
     <row r="167" spans="2:14" s="156" customFormat="1">
       <c r="B167" s="181"/>
       <c r="C167" s="181"/>
-      <c r="D167" s="237"/>
+      <c r="D167" s="234"/>
       <c r="G167" s="76"/>
       <c r="H167" s="76"/>
       <c r="I167" s="161"/>
@@ -24637,7 +24661,7 @@
     <row r="168" spans="2:14" s="156" customFormat="1">
       <c r="B168" s="181"/>
       <c r="C168" s="181"/>
-      <c r="D168" s="237"/>
+      <c r="D168" s="234"/>
       <c r="G168" s="76"/>
       <c r="H168" s="76"/>
       <c r="I168" s="161"/>
@@ -24649,7 +24673,7 @@
     <row r="169" spans="2:14" s="156" customFormat="1">
       <c r="B169" s="181"/>
       <c r="C169" s="181"/>
-      <c r="D169" s="237"/>
+      <c r="D169" s="234"/>
       <c r="G169" s="76"/>
       <c r="H169" s="76"/>
       <c r="I169" s="161"/>
@@ -24662,7 +24686,7 @@
     <row r="170" spans="2:14" s="156" customFormat="1">
       <c r="B170" s="181"/>
       <c r="C170" s="181"/>
-      <c r="D170" s="237"/>
+      <c r="D170" s="234"/>
       <c r="G170" s="76"/>
       <c r="H170" s="76"/>
       <c r="I170" s="161"/>
@@ -24675,7 +24699,7 @@
     <row r="171" spans="2:14" s="156" customFormat="1">
       <c r="B171" s="181"/>
       <c r="C171" s="181"/>
-      <c r="D171" s="237"/>
+      <c r="D171" s="234"/>
       <c r="G171" s="76"/>
       <c r="H171" s="76"/>
       <c r="I171" s="161"/>
@@ -24688,7 +24712,7 @@
     <row r="172" spans="2:14" s="156" customFormat="1">
       <c r="B172" s="181"/>
       <c r="C172" s="181"/>
-      <c r="D172" s="237"/>
+      <c r="D172" s="234"/>
       <c r="G172" s="76"/>
       <c r="H172" s="76"/>
       <c r="I172" s="166"/>
@@ -24701,7 +24725,7 @@
     <row r="173" spans="2:14" s="156" customFormat="1">
       <c r="B173" s="181"/>
       <c r="C173" s="181"/>
-      <c r="D173" s="237"/>
+      <c r="D173" s="234"/>
       <c r="G173" s="76"/>
       <c r="H173" s="76"/>
       <c r="I173" s="161"/>
@@ -24714,7 +24738,7 @@
     <row r="174" spans="2:14" s="156" customFormat="1">
       <c r="B174" s="181"/>
       <c r="C174" s="181"/>
-      <c r="D174" s="237"/>
+      <c r="D174" s="234"/>
       <c r="F174" s="76"/>
       <c r="G174" s="76"/>
       <c r="H174" s="76"/>
@@ -24728,7 +24752,7 @@
     <row r="175" spans="2:14" s="156" customFormat="1">
       <c r="B175" s="181"/>
       <c r="C175" s="181"/>
-      <c r="D175" s="237"/>
+      <c r="D175" s="234"/>
       <c r="F175" s="76"/>
       <c r="G175" s="76"/>
       <c r="H175" s="76"/>
@@ -24742,7 +24766,7 @@
     <row r="176" spans="2:14" s="156" customFormat="1">
       <c r="B176" s="181"/>
       <c r="C176" s="181"/>
-      <c r="D176" s="237"/>
+      <c r="D176" s="234"/>
       <c r="F176" s="76"/>
       <c r="G176" s="76"/>
       <c r="H176" s="76"/>
@@ -24756,7 +24780,7 @@
     <row r="177" spans="2:13" s="156" customFormat="1">
       <c r="B177" s="181"/>
       <c r="C177" s="181"/>
-      <c r="D177" s="237"/>
+      <c r="D177" s="234"/>
       <c r="F177" s="76"/>
       <c r="G177" s="76"/>
       <c r="H177" s="76"/>
@@ -24769,7 +24793,7 @@
     <row r="178" spans="2:13" s="156" customFormat="1">
       <c r="B178" s="181"/>
       <c r="C178" s="181"/>
-      <c r="D178" s="237"/>
+      <c r="D178" s="234"/>
       <c r="F178" s="76"/>
       <c r="G178" s="76"/>
       <c r="H178" s="76"/>
@@ -24782,7 +24806,7 @@
     <row r="179" spans="2:13" s="156" customFormat="1">
       <c r="B179" s="181"/>
       <c r="C179" s="181"/>
-      <c r="D179" s="237"/>
+      <c r="D179" s="234"/>
       <c r="F179" s="76"/>
       <c r="G179" s="76"/>
       <c r="H179" s="76"/>
@@ -24795,7 +24819,7 @@
     <row r="180" spans="2:13" s="156" customFormat="1">
       <c r="B180" s="181"/>
       <c r="C180" s="181"/>
-      <c r="D180" s="237"/>
+      <c r="D180" s="234"/>
       <c r="F180" s="76"/>
       <c r="G180" s="76"/>
       <c r="H180" s="76"/>
@@ -24808,7 +24832,7 @@
     <row r="181" spans="2:13" s="156" customFormat="1">
       <c r="B181" s="181"/>
       <c r="C181" s="181"/>
-      <c r="D181" s="237"/>
+      <c r="D181" s="234"/>
       <c r="F181" s="76"/>
       <c r="G181" s="76"/>
       <c r="H181" s="76"/>
@@ -24821,7 +24845,7 @@
     <row r="182" spans="2:13" s="156" customFormat="1">
       <c r="B182" s="181"/>
       <c r="C182" s="181"/>
-      <c r="D182" s="237"/>
+      <c r="D182" s="234"/>
       <c r="F182" s="76"/>
       <c r="G182" s="76"/>
       <c r="H182" s="76"/>
@@ -24834,7 +24858,7 @@
     <row r="183" spans="2:13" s="156" customFormat="1">
       <c r="B183" s="181"/>
       <c r="C183" s="181"/>
-      <c r="D183" s="237"/>
+      <c r="D183" s="234"/>
       <c r="F183" s="76"/>
       <c r="G183" s="76"/>
       <c r="H183" s="76"/>
@@ -24847,7 +24871,7 @@
     <row r="184" spans="2:13" s="156" customFormat="1">
       <c r="B184" s="181"/>
       <c r="C184" s="181"/>
-      <c r="D184" s="237"/>
+      <c r="D184" s="234"/>
       <c r="F184" s="76"/>
       <c r="G184" s="76"/>
       <c r="H184" s="76"/>
@@ -24860,7 +24884,7 @@
     <row r="185" spans="2:13" s="156" customFormat="1">
       <c r="B185" s="181"/>
       <c r="C185" s="181"/>
-      <c r="D185" s="237"/>
+      <c r="D185" s="234"/>
       <c r="F185" s="76"/>
       <c r="G185" s="76"/>
       <c r="H185" s="76"/>
@@ -24873,7 +24897,7 @@
     <row r="186" spans="2:13" s="156" customFormat="1">
       <c r="B186" s="181"/>
       <c r="C186" s="181"/>
-      <c r="D186" s="237"/>
+      <c r="D186" s="234"/>
       <c r="F186" s="76"/>
       <c r="G186" s="76"/>
       <c r="H186" s="76"/>
@@ -24886,7 +24910,7 @@
     <row r="187" spans="2:13" s="156" customFormat="1">
       <c r="B187" s="181"/>
       <c r="C187" s="181"/>
-      <c r="D187" s="237"/>
+      <c r="D187" s="234"/>
       <c r="F187" s="76"/>
       <c r="G187" s="76"/>
       <c r="H187" s="76"/>
@@ -24899,7 +24923,7 @@
     <row r="188" spans="2:13" s="156" customFormat="1">
       <c r="B188" s="181"/>
       <c r="C188" s="181"/>
-      <c r="D188" s="237"/>
+      <c r="D188" s="234"/>
       <c r="F188" s="76"/>
       <c r="G188" s="76"/>
       <c r="H188" s="76"/>
@@ -24912,7 +24936,7 @@
     <row r="189" spans="2:13" s="156" customFormat="1">
       <c r="B189" s="181"/>
       <c r="C189" s="181"/>
-      <c r="D189" s="237"/>
+      <c r="D189" s="234"/>
       <c r="F189" s="76"/>
       <c r="G189" s="76"/>
       <c r="H189" s="76"/>
@@ -24925,7 +24949,7 @@
     <row r="190" spans="2:13" s="156" customFormat="1">
       <c r="B190" s="181"/>
       <c r="C190" s="181"/>
-      <c r="D190" s="237"/>
+      <c r="D190" s="234"/>
       <c r="F190" s="76"/>
       <c r="G190" s="76"/>
       <c r="H190" s="76"/>
@@ -24938,7 +24962,7 @@
     <row r="191" spans="2:13" s="156" customFormat="1">
       <c r="B191" s="181"/>
       <c r="C191" s="181"/>
-      <c r="D191" s="237"/>
+      <c r="D191" s="234"/>
       <c r="F191" s="76"/>
       <c r="G191" s="76"/>
       <c r="H191" s="76"/>
@@ -24951,7 +24975,7 @@
     <row r="192" spans="2:13" s="156" customFormat="1">
       <c r="B192" s="181"/>
       <c r="C192" s="181"/>
-      <c r="D192" s="237"/>
+      <c r="D192" s="234"/>
       <c r="F192" s="76"/>
       <c r="G192" s="76"/>
       <c r="H192" s="76"/>
@@ -24964,7 +24988,7 @@
     <row r="193" spans="2:13" s="156" customFormat="1">
       <c r="B193" s="181"/>
       <c r="C193" s="181"/>
-      <c r="D193" s="237"/>
+      <c r="D193" s="234"/>
       <c r="F193" s="76"/>
       <c r="G193" s="76"/>
       <c r="H193" s="76"/>
@@ -24977,7 +25001,7 @@
     <row r="194" spans="2:13" s="156" customFormat="1">
       <c r="B194" s="181"/>
       <c r="C194" s="181"/>
-      <c r="D194" s="237"/>
+      <c r="D194" s="234"/>
       <c r="F194" s="76"/>
       <c r="G194" s="76"/>
       <c r="H194" s="76"/>
@@ -24990,7 +25014,7 @@
     <row r="195" spans="2:13" s="156" customFormat="1">
       <c r="B195" s="181"/>
       <c r="C195" s="181"/>
-      <c r="D195" s="237"/>
+      <c r="D195" s="234"/>
       <c r="F195" s="76"/>
       <c r="G195" s="76"/>
       <c r="H195" s="76"/>
@@ -25003,7 +25027,7 @@
     <row r="196" spans="2:13" s="156" customFormat="1">
       <c r="B196" s="181"/>
       <c r="C196" s="181"/>
-      <c r="D196" s="237"/>
+      <c r="D196" s="234"/>
       <c r="F196" s="76"/>
       <c r="G196" s="76"/>
       <c r="H196" s="76"/>
@@ -25016,7 +25040,7 @@
     <row r="197" spans="2:13" s="156" customFormat="1">
       <c r="B197" s="181"/>
       <c r="C197" s="181"/>
-      <c r="D197" s="237"/>
+      <c r="D197" s="234"/>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
       <c r="H197" s="76"/>
@@ -25029,7 +25053,7 @@
     <row r="198" spans="2:13" s="156" customFormat="1">
       <c r="B198" s="181"/>
       <c r="C198" s="181"/>
-      <c r="D198" s="237"/>
+      <c r="D198" s="234"/>
       <c r="F198" s="76"/>
       <c r="G198" s="76"/>
       <c r="H198" s="76"/>
@@ -25042,7 +25066,7 @@
     <row r="199" spans="2:13" s="156" customFormat="1">
       <c r="B199" s="181"/>
       <c r="C199" s="181"/>
-      <c r="D199" s="237"/>
+      <c r="D199" s="234"/>
       <c r="F199" s="76"/>
       <c r="G199" s="76"/>
       <c r="H199" s="76"/>
@@ -25055,7 +25079,7 @@
     <row r="200" spans="2:13" s="156" customFormat="1">
       <c r="B200" s="181"/>
       <c r="C200" s="181"/>
-      <c r="D200" s="237"/>
+      <c r="D200" s="234"/>
       <c r="F200" s="76"/>
       <c r="G200" s="76"/>
       <c r="H200" s="76"/>
@@ -25068,7 +25092,7 @@
     <row r="201" spans="2:13" s="156" customFormat="1">
       <c r="B201" s="181"/>
       <c r="C201" s="181"/>
-      <c r="D201" s="237"/>
+      <c r="D201" s="234"/>
       <c r="F201" s="76"/>
       <c r="G201" s="76"/>
       <c r="H201" s="76"/>
@@ -25081,7 +25105,7 @@
     <row r="202" spans="2:13" s="156" customFormat="1">
       <c r="B202" s="181"/>
       <c r="C202" s="181"/>
-      <c r="D202" s="237"/>
+      <c r="D202" s="234"/>
       <c r="F202" s="76"/>
       <c r="G202" s="76"/>
       <c r="H202" s="76"/>
@@ -25094,7 +25118,7 @@
     <row r="203" spans="2:13" s="156" customFormat="1">
       <c r="B203" s="181"/>
       <c r="C203" s="181"/>
-      <c r="D203" s="237"/>
+      <c r="D203" s="234"/>
       <c r="F203" s="76"/>
       <c r="G203" s="76"/>
       <c r="H203" s="76"/>
@@ -25107,7 +25131,7 @@
     <row r="204" spans="2:13" s="156" customFormat="1">
       <c r="B204" s="181"/>
       <c r="C204" s="181"/>
-      <c r="D204" s="237"/>
+      <c r="D204" s="234"/>
       <c r="F204" s="76"/>
       <c r="G204" s="76"/>
       <c r="H204" s="76"/>
@@ -25120,7 +25144,7 @@
     <row r="205" spans="2:13" s="156" customFormat="1">
       <c r="B205" s="181"/>
       <c r="C205" s="181"/>
-      <c r="D205" s="237"/>
+      <c r="D205" s="234"/>
       <c r="F205" s="76"/>
       <c r="G205" s="76"/>
       <c r="H205" s="76"/>
@@ -25133,7 +25157,7 @@
     <row r="206" spans="2:13" s="156" customFormat="1">
       <c r="B206" s="181"/>
       <c r="C206" s="181"/>
-      <c r="D206" s="237"/>
+      <c r="D206" s="234"/>
       <c r="F206" s="76"/>
       <c r="G206" s="76"/>
       <c r="H206" s="76"/>
@@ -25146,7 +25170,7 @@
     <row r="207" spans="2:13" s="156" customFormat="1">
       <c r="B207" s="181"/>
       <c r="C207" s="181"/>
-      <c r="D207" s="237"/>
+      <c r="D207" s="234"/>
       <c r="F207" s="76"/>
       <c r="G207" s="76"/>
       <c r="H207" s="76"/>
@@ -25159,7 +25183,7 @@
     <row r="208" spans="2:13" s="156" customFormat="1">
       <c r="B208" s="181"/>
       <c r="C208" s="181"/>
-      <c r="D208" s="237"/>
+      <c r="D208" s="234"/>
       <c r="F208" s="76"/>
       <c r="G208" s="76"/>
       <c r="H208" s="76"/>
@@ -25172,7 +25196,7 @@
     <row r="209" spans="2:13" s="156" customFormat="1">
       <c r="B209" s="181"/>
       <c r="C209" s="181"/>
-      <c r="D209" s="237"/>
+      <c r="D209" s="234"/>
       <c r="F209" s="76"/>
       <c r="G209" s="76"/>
       <c r="H209" s="76"/>
@@ -25185,7 +25209,7 @@
     <row r="210" spans="2:13" s="156" customFormat="1">
       <c r="B210" s="181"/>
       <c r="C210" s="181"/>
-      <c r="D210" s="237"/>
+      <c r="D210" s="234"/>
       <c r="F210" s="76"/>
       <c r="G210" s="76"/>
       <c r="H210" s="76"/>
@@ -25198,7 +25222,7 @@
     <row r="211" spans="2:13" s="156" customFormat="1">
       <c r="B211" s="181"/>
       <c r="C211" s="181"/>
-      <c r="D211" s="237"/>
+      <c r="D211" s="234"/>
       <c r="F211" s="76"/>
       <c r="G211" s="76"/>
       <c r="H211" s="76"/>
@@ -25211,7 +25235,7 @@
     <row r="212" spans="2:13" s="156" customFormat="1">
       <c r="B212" s="181"/>
       <c r="C212" s="181"/>
-      <c r="D212" s="237"/>
+      <c r="D212" s="234"/>
       <c r="F212" s="76"/>
       <c r="G212" s="76"/>
       <c r="H212" s="76"/>
@@ -25224,7 +25248,7 @@
     <row r="213" spans="2:13" s="156" customFormat="1">
       <c r="B213" s="181"/>
       <c r="C213" s="181"/>
-      <c r="D213" s="237"/>
+      <c r="D213" s="234"/>
       <c r="F213" s="76"/>
       <c r="G213" s="76"/>
       <c r="H213" s="76"/>
@@ -25237,7 +25261,7 @@
     <row r="214" spans="2:13" s="156" customFormat="1">
       <c r="B214" s="181"/>
       <c r="C214" s="181"/>
-      <c r="D214" s="237"/>
+      <c r="D214" s="234"/>
       <c r="F214" s="76"/>
       <c r="G214" s="76"/>
       <c r="H214" s="76"/>
@@ -25250,7 +25274,7 @@
     <row r="215" spans="2:13" s="156" customFormat="1">
       <c r="B215" s="181"/>
       <c r="C215" s="181"/>
-      <c r="D215" s="237"/>
+      <c r="D215" s="234"/>
       <c r="F215" s="76"/>
       <c r="G215" s="76"/>
       <c r="H215" s="76"/>
@@ -25263,7 +25287,7 @@
     <row r="216" spans="2:13" s="156" customFormat="1">
       <c r="B216" s="181"/>
       <c r="C216" s="181"/>
-      <c r="D216" s="237"/>
+      <c r="D216" s="234"/>
       <c r="F216" s="76"/>
       <c r="G216" s="76"/>
       <c r="H216" s="76"/>
@@ -25276,7 +25300,7 @@
     <row r="217" spans="2:13" s="156" customFormat="1">
       <c r="B217" s="181"/>
       <c r="C217" s="181"/>
-      <c r="D217" s="237"/>
+      <c r="D217" s="234"/>
       <c r="F217" s="76"/>
       <c r="G217" s="76"/>
       <c r="H217" s="76"/>
@@ -25289,7 +25313,7 @@
     <row r="218" spans="2:13" s="156" customFormat="1">
       <c r="B218" s="181"/>
       <c r="C218" s="181"/>
-      <c r="D218" s="237"/>
+      <c r="D218" s="234"/>
       <c r="F218" s="76"/>
       <c r="G218" s="76"/>
       <c r="H218" s="76"/>
@@ -25302,7 +25326,7 @@
     <row r="219" spans="2:13" s="156" customFormat="1">
       <c r="B219" s="181"/>
       <c r="C219" s="181"/>
-      <c r="D219" s="237"/>
+      <c r="D219" s="234"/>
       <c r="F219" s="76"/>
       <c r="G219" s="76"/>
       <c r="H219" s="76"/>
@@ -25315,7 +25339,7 @@
     <row r="220" spans="2:13" s="156" customFormat="1">
       <c r="B220" s="181"/>
       <c r="C220" s="181"/>
-      <c r="D220" s="237"/>
+      <c r="D220" s="234"/>
       <c r="F220" s="76"/>
       <c r="G220" s="76"/>
       <c r="H220" s="76"/>
@@ -25328,7 +25352,7 @@
     <row r="221" spans="2:13" s="156" customFormat="1">
       <c r="B221" s="181"/>
       <c r="C221" s="181"/>
-      <c r="D221" s="237"/>
+      <c r="D221" s="234"/>
       <c r="F221" s="76"/>
       <c r="G221" s="76"/>
       <c r="H221" s="76"/>
@@ -25341,7 +25365,7 @@
     <row r="222" spans="2:13" s="156" customFormat="1">
       <c r="B222" s="181"/>
       <c r="C222" s="181"/>
-      <c r="D222" s="237"/>
+      <c r="D222" s="234"/>
       <c r="F222" s="76"/>
       <c r="G222" s="76"/>
       <c r="H222" s="76"/>
@@ -25354,7 +25378,7 @@
     <row r="223" spans="2:13" s="156" customFormat="1">
       <c r="B223" s="181"/>
       <c r="C223" s="181"/>
-      <c r="D223" s="237"/>
+      <c r="D223" s="234"/>
       <c r="F223" s="76"/>
       <c r="G223" s="76"/>
       <c r="H223" s="76"/>
@@ -25367,7 +25391,7 @@
     <row r="224" spans="2:13" s="156" customFormat="1">
       <c r="B224" s="181"/>
       <c r="C224" s="181"/>
-      <c r="D224" s="237"/>
+      <c r="D224" s="234"/>
       <c r="F224" s="76"/>
       <c r="G224" s="76"/>
       <c r="H224" s="76"/>
@@ -33442,8 +33466,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33462,35 +33486,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="351" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="352"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="353"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="360" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="361"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="362"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="354" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="355"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="356"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33517,13 +33541,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="363" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="363"/>
-      <c r="C4" s="363"/>
-      <c r="D4" s="363"/>
-      <c r="E4" s="364"/>
+      <c r="B4" s="364"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="364"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -33550,13 +33574,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="23.25">
-      <c r="A5" s="362" t="s">
+      <c r="A5" s="363" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="363"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="364"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="365"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -33586,19 +33610,19 @@
       <c r="A6" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="284">
+      <c r="B6" s="281">
         <v>8000000</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="279">
+      <c r="E6" s="276">
         <v>4482668.7316666702</v>
       </c>
       <c r="F6" s="41"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="306"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="303"/>
       <c r="I6" s="127"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -33625,20 +33649,20 @@
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="284">
+      <c r="B7" s="281">
         <v>42691.039642857133</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="279">
+      <c r="E7" s="276">
         <v>604388</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="307"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -33661,19 +33685,19 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="21.75">
-      <c r="A8" s="287"/>
-      <c r="B8" s="284"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="281"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="315" t="s">
+      <c r="D8" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="280">
+      <c r="E8" s="277">
         <v>247210.30797618721</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
-      <c r="I8" s="307"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -33696,15 +33720,15 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="21.75">
-      <c r="A9" s="287"/>
-      <c r="B9" s="284"/>
+      <c r="A9" s="284"/>
+      <c r="B9" s="281"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="281"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="278"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="263"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="305"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="302"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -33728,14 +33752,14 @@
     </row>
     <row r="10" spans="1:29" ht="21.75">
       <c r="A10" s="45"/>
-      <c r="B10" s="284"/>
+      <c r="B10" s="281"/>
       <c r="C10" s="47"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="282"/>
+      <c r="D10" s="312"/>
+      <c r="E10" s="279"/>
       <c r="F10" s="8"/>
       <c r="G10" s="127"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="305"/>
+      <c r="I10" s="302"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -33761,20 +33785,20 @@
       <c r="A11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="284">
+      <c r="B11" s="281">
         <v>11720</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="279">
+      <c r="E11" s="276">
         <v>2003971</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="308"/>
-      <c r="I11" s="309"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="305"/>
+      <c r="I11" s="306"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -33800,20 +33824,20 @@
       <c r="A12" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="284">
+      <c r="B12" s="281">
         <v>0</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="279">
+      <c r="E12" s="276">
         <v>125810</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -33836,10 +33860,10 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="261" t="s">
+      <c r="A13" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="285">
+      <c r="B13" s="282">
         <f>B7+B8+B9-B11-B12</f>
         <v>30971.039642857133</v>
       </c>
@@ -33847,17 +33871,17 @@
       <c r="D13" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="282">
+      <c r="E13" s="279">
         <v>566923</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="264"/>
+      <c r="G13" s="261"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="265"/>
+      <c r="I13" s="262"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -33880,15 +33904,15 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="287"/>
-      <c r="B14" s="284"/>
+      <c r="A14" s="284"/>
+      <c r="B14" s="281"/>
       <c r="C14" s="47"/>
       <c r="D14" s="141"/>
-      <c r="E14" s="282"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="267"/>
-      <c r="I14" s="267"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
       <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
@@ -33914,10 +33938,10 @@
     </row>
     <row r="15" spans="1:29" ht="21.75">
       <c r="A15" s="45"/>
-      <c r="B15" s="286"/>
+      <c r="B15" s="283"/>
       <c r="C15" s="47"/>
       <c r="D15" s="141"/>
-      <c r="E15" s="282"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
       <c r="I15" s="8"/>
@@ -33948,7 +33972,7 @@
       <c r="A16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="286">
+      <c r="B16" s="283">
         <f>B6+B7+B8+B9-B11-B12</f>
         <v>8030971.0396428574</v>
       </c>
@@ -33956,7 +33980,7 @@
       <c r="D16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="283">
+      <c r="E16" s="280">
         <f>E6+E7+E8+E11+E12+E13</f>
         <v>8030971.0396428574</v>
       </c>
@@ -34026,13 +34050,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="356" t="s">
+      <c r="A18" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="357"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="357"/>
-      <c r="E18" s="358"/>
+      <c r="B18" s="358"/>
+      <c r="C18" s="358"/>
+      <c r="D18" s="358"/>
+      <c r="E18" s="359"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -34068,10 +34092,10 @@
         <v>56470</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="271" t="s">
+      <c r="D19" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="268">
+      <c r="E19" s="265">
         <v>242575</v>
       </c>
       <c r="F19" s="5"/>
@@ -34107,10 +34131,10 @@
         <v>28000</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="272" t="s">
+      <c r="D20" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="273">
+      <c r="E20" s="270">
         <v>194966</v>
       </c>
       <c r="G20" s="19"/>
@@ -34176,10 +34200,10 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="21.75">
-      <c r="A22" s="289" t="s">
+      <c r="A22" s="286" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="291">
+      <c r="B22" s="288">
         <v>19600</v>
       </c>
       <c r="C22" s="46"/>
@@ -34252,7 +34276,7 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="1:29" ht="21.75">
-      <c r="A24" s="290" t="s">
+      <c r="A24" s="287" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="138">
@@ -34265,7 +34289,7 @@
       <c r="E24" s="60">
         <v>39856</v>
       </c>
-      <c r="G24" s="310"/>
+      <c r="G24" s="307"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -34290,14 +34314,14 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="21.75">
-      <c r="A25" s="290" t="s">
+      <c r="A25" s="287" t="s">
         <v>190</v>
       </c>
       <c r="B25" s="138">
         <v>33000</v>
       </c>
       <c r="C25" s="139"/>
-      <c r="D25" s="288" t="s">
+      <c r="D25" s="285" t="s">
         <v>175</v>
       </c>
       <c r="E25" s="60">
@@ -34327,17 +34351,17 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="22.5" thickBot="1">
-      <c r="A26" s="365" t="s">
+      <c r="A26" s="314" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="366">
+      <c r="B26" s="315">
         <v>414120</v>
       </c>
       <c r="C26" s="140"/>
-      <c r="D26" s="367" t="s">
+      <c r="D26" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="368">
+      <c r="E26" s="317">
         <v>129725</v>
       </c>
       <c r="G26" s="37"/>
